--- a/legendre_out/DATA/p1/p1IntegrandSplinePoints1.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandSplinePoints1.000000.xlsx
@@ -386,7 +386,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>6.602619062171154e-23</v>
+        <v>3.458132388706578e-23</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.755890524555461</v>
       </c>
       <c r="C3" t="n">
-        <v>6.608121987611984e-23</v>
+        <v>3.516280029865098e-23</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.756807732038326</v>
       </c>
       <c r="C4" t="n">
-        <v>6.613607895436621e-23</v>
+        <v>3.570424504058257e-23</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.757724939521191</v>
       </c>
       <c r="C5" t="n">
-        <v>6.619334951803552e-23</v>
+        <v>3.621003050452118e-23</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.758642147004056</v>
       </c>
       <c r="C6" t="n">
-        <v>6.625561322871256e-23</v>
+        <v>3.668452908212752e-23</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.759559354486921</v>
       </c>
       <c r="C7" t="n">
-        <v>6.632545174798219e-23</v>
+        <v>3.713211316506224e-23</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.760476561969786</v>
       </c>
       <c r="C8" t="n">
-        <v>6.64054467374293e-23</v>
+        <v>3.755715514498608e-23</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.761393769452651</v>
       </c>
       <c r="C9" t="n">
-        <v>6.649817985863866e-23</v>
+        <v>3.796402741355966e-23</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.762310976935516</v>
       </c>
       <c r="C10" t="n">
-        <v>6.660623277319516e-23</v>
+        <v>3.835710236244368e-23</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.763228184418381</v>
       </c>
       <c r="C11" t="n">
-        <v>6.673218714268363e-23</v>
+        <v>3.874075238329884e-23</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.764145391901245</v>
       </c>
       <c r="C12" t="n">
-        <v>6.687862462868885e-23</v>
+        <v>3.911934986778561e-23</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.76506259938411</v>
       </c>
       <c r="C13" t="n">
-        <v>6.704812689279579e-23</v>
+        <v>3.949726720756505e-23</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.765979806866975</v>
       </c>
       <c r="C14" t="n">
-        <v>6.724327559658923e-23</v>
+        <v>3.987887679429766e-23</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.76689701434984</v>
       </c>
       <c r="C15" t="n">
-        <v>6.746665240165401e-23</v>
+        <v>4.026855101964411e-23</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.767814221832705</v>
       </c>
       <c r="C16" t="n">
-        <v>6.772083896957496e-23</v>
+        <v>4.067066227526509e-23</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.76873142931557</v>
       </c>
       <c r="C17" t="n">
-        <v>6.800841696193696e-23</v>
+        <v>4.108958295282128e-23</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.769648636798435</v>
       </c>
       <c r="C18" t="n">
-        <v>6.833196804032482e-23</v>
+        <v>4.152968544397335e-23</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.7705658442813</v>
       </c>
       <c r="C19" t="n">
-        <v>6.869407386632341e-23</v>
+        <v>4.1995342140382e-23</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.771483051764165</v>
       </c>
       <c r="C20" t="n">
-        <v>6.909731610151755e-23</v>
+        <v>4.249092543370789e-23</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.77240025924703</v>
       </c>
       <c r="C21" t="n">
-        <v>6.95442764074921e-23</v>
+        <v>4.302080771561171e-23</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.773317466729895</v>
       </c>
       <c r="C22" t="n">
-        <v>7.00375364458319e-23</v>
+        <v>4.358936137775416e-23</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.77423467421276</v>
       </c>
       <c r="C23" t="n">
-        <v>7.057967787812178e-23</v>
+        <v>4.420095881179588e-23</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.775151881695625</v>
       </c>
       <c r="C24" t="n">
-        <v>7.117328236594662e-23</v>
+        <v>4.485997240939759e-23</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.77606908917849</v>
       </c>
       <c r="C25" t="n">
-        <v>7.182093157089121e-23</v>
+        <v>4.557077456221994e-23</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.776986296661355</v>
       </c>
       <c r="C26" t="n">
-        <v>7.252520715454042e-23</v>
+        <v>4.633773766192363e-23</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.777903504144219</v>
       </c>
       <c r="C27" t="n">
-        <v>7.32886907784791e-23</v>
+        <v>4.716523410016935e-23</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.778820711627084</v>
       </c>
       <c r="C28" t="n">
-        <v>7.411396410429209e-23</v>
+        <v>4.805763626861774e-23</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.779737919109949</v>
       </c>
       <c r="C29" t="n">
-        <v>7.500360879356422e-23</v>
+        <v>4.901931655892952e-23</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.780655126592814</v>
       </c>
       <c r="C30" t="n">
-        <v>7.596020650787986e-23</v>
+        <v>5.005464736276483e-23</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.781572334075679</v>
       </c>
       <c r="C31" t="n">
-        <v>7.698633890882482e-23</v>
+        <v>5.116800107178538e-23</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.782489541558544</v>
       </c>
       <c r="C32" t="n">
-        <v>7.808458765798342e-23</v>
+        <v>5.236375007765133e-23</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.783406749041409</v>
       </c>
       <c r="C33" t="n">
-        <v>7.925753441694052e-23</v>
+        <v>5.364626677202338e-23</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.784323956524274</v>
       </c>
       <c r="C34" t="n">
-        <v>8.050776084728103e-23</v>
+        <v>5.501992354656221e-23</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.785241164007139</v>
       </c>
       <c r="C35" t="n">
-        <v>8.183784861058973e-23</v>
+        <v>5.648909279292851e-23</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.786158371490004</v>
       </c>
       <c r="C36" t="n">
-        <v>8.325037936845148e-23</v>
+        <v>5.805814690278292e-23</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.787075578972869</v>
       </c>
       <c r="C37" t="n">
-        <v>8.474793478245113e-23</v>
+        <v>5.973145826778619e-23</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.787992786455733</v>
       </c>
       <c r="C38" t="n">
-        <v>8.633309651417353e-23</v>
+        <v>6.151339927959895e-23</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.788909993938598</v>
       </c>
       <c r="C39" t="n">
-        <v>8.800844622520349e-23</v>
+        <v>6.340834232988189e-23</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.789827201421463</v>
       </c>
       <c r="C40" t="n">
-        <v>8.977656557712587e-23</v>
+        <v>6.542065981029568e-23</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.790744408904328</v>
       </c>
       <c r="C41" t="n">
-        <v>9.164003623152555e-23</v>
+        <v>6.755472411250104e-23</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.791661616387193</v>
       </c>
       <c r="C42" t="n">
-        <v>9.360143984998733e-23</v>
+        <v>6.981490762815862e-23</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.792578823870058</v>
       </c>
       <c r="C43" t="n">
-        <v>9.566335809409605e-23</v>
+        <v>7.220558274892909e-23</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.793496031352923</v>
       </c>
       <c r="C44" t="n">
-        <v>9.782837262543658e-23</v>
+        <v>7.473112186647316e-23</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.794413238835788</v>
       </c>
       <c r="C45" t="n">
-        <v>1.000990651055937e-22</v>
+        <v>7.739589737245148e-23</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.795330446318653</v>
       </c>
       <c r="C46" t="n">
-        <v>1.024780171961524e-22</v>
+        <v>8.020428165852476e-23</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.796247653801518</v>
       </c>
       <c r="C47" t="n">
-        <v>1.049678105586973e-22</v>
+        <v>8.316064711635367e-23</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.797164861284383</v>
       </c>
       <c r="C48" t="n">
-        <v>1.075710268548135e-22</v>
+        <v>8.62693661375989e-23</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.798082068767247</v>
       </c>
       <c r="C49" t="n">
-        <v>1.102903104090374e-22</v>
+        <v>8.95348600135685e-23</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.798999276250112</v>
       </c>
       <c r="C50" t="n">
-        <v>1.131435748251983e-22</v>
+        <v>9.297346556717481e-23</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.799916483732977</v>
       </c>
       <c r="C51" t="n">
-        <v>1.161838319670616e-22</v>
+        <v>9.662890889212857e-23</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.800833691215842</v>
       </c>
       <c r="C52" t="n">
-        <v>1.194690066463631e-22</v>
+        <v>1.005487499491941e-22</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.801750898698707</v>
       </c>
       <c r="C53" t="n">
-        <v>1.23057023674839e-22</v>
+        <v>1.047805486991358e-22</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.802668106181572</v>
       </c>
       <c r="C54" t="n">
-        <v>1.270058078642249e-22</v>
+        <v>1.093718651027179e-22</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.803585313664437</v>
       </c>
       <c r="C55" t="n">
-        <v>1.313732840262571e-22</v>
+        <v>1.143702591207049e-22</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.804502521147302</v>
       </c>
       <c r="C56" t="n">
-        <v>1.362173769726712e-22</v>
+        <v>1.198232907138611e-22</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.805419728630167</v>
       </c>
       <c r="C57" t="n">
-        <v>1.415960115152033e-22</v>
+        <v>1.257785198429509e-22</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.806336936113032</v>
       </c>
       <c r="C58" t="n">
-        <v>1.475671124655893e-22</v>
+        <v>1.322835064687386e-22</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.807254143595897</v>
       </c>
       <c r="C59" t="n">
-        <v>1.541886046355652e-22</v>
+        <v>1.393858105519887e-22</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.808171351078762</v>
       </c>
       <c r="C60" t="n">
-        <v>1.615184128368669e-22</v>
+        <v>1.471329920534654e-22</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.809088558561627</v>
       </c>
       <c r="C61" t="n">
-        <v>1.696144618812304e-22</v>
+        <v>1.555726109339331e-22</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.810005766044492</v>
       </c>
       <c r="C62" t="n">
-        <v>1.785346765803915e-22</v>
+        <v>1.647522271541562e-22</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.810922973527357</v>
       </c>
       <c r="C63" t="n">
-        <v>1.883369817460863e-22</v>
+        <v>1.747194006748991e-22</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.811840181010222</v>
       </c>
       <c r="C64" t="n">
-        <v>1.990793021900506e-22</v>
+        <v>1.855216914569261e-22</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.812757388493087</v>
       </c>
       <c r="C65" t="n">
-        <v>2.108195627240204e-22</v>
+        <v>1.972066594610015e-22</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.813674595975951</v>
       </c>
       <c r="C66" t="n">
-        <v>2.236156881597317e-22</v>
+        <v>2.098218646478899e-22</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.814591803458816</v>
       </c>
       <c r="C67" t="n">
-        <v>2.375256033089133e-22</v>
+        <v>2.234148669783486e-22</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.815509010941681</v>
       </c>
       <c r="C68" t="n">
-        <v>2.526316112944654e-22</v>
+        <v>2.380596025434746e-22</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.816426218424546</v>
       </c>
       <c r="C69" t="n">
-        <v>2.692772537444729e-22</v>
+        <v>2.541126546126149e-22</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.817343425907411</v>
       </c>
       <c r="C70" t="n">
-        <v>2.879646549364996e-22</v>
+        <v>2.721021850605079e-22</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.818260633390276</v>
       </c>
       <c r="C71" t="n">
-        <v>3.09198168768919e-22</v>
+        <v>2.925587681016423e-22</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.819177840873141</v>
       </c>
       <c r="C72" t="n">
-        <v>3.334821491401044e-22</v>
+        <v>3.16012977950507e-22</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.820095048356006</v>
       </c>
       <c r="C73" t="n">
-        <v>3.61320949948429e-22</v>
+        <v>3.429953888215904e-22</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.821012255838871</v>
       </c>
       <c r="C74" t="n">
-        <v>3.932189250922664e-22</v>
+        <v>3.740365749293812e-22</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.821929463321736</v>
       </c>
       <c r="C75" t="n">
-        <v>4.296804284699896e-22</v>
+        <v>4.096671104883681e-22</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.8228466708046</v>
       </c>
       <c r="C76" t="n">
-        <v>4.71209813979972e-22</v>
+        <v>4.504175697130399e-22</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.823763878287465</v>
       </c>
       <c r="C77" t="n">
-        <v>5.183114355205873e-22</v>
+        <v>4.968185268178852e-22</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.82468108577033</v>
       </c>
       <c r="C78" t="n">
-        <v>5.714896469902081e-22</v>
+        <v>5.494005560173924e-22</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.825598293253195</v>
       </c>
       <c r="C79" t="n">
-        <v>6.312488022872085e-22</v>
+        <v>6.086942315260508e-22</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.82651550073606</v>
       </c>
       <c r="C80" t="n">
-        <v>6.980932553099612e-22</v>
+        <v>6.752301275583484e-22</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.827432708218925</v>
       </c>
       <c r="C81" t="n">
-        <v>7.725273599568398e-22</v>
+        <v>7.495388183287741e-22</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.82834991570179</v>
       </c>
       <c r="C82" t="n">
-        <v>8.54924401492395e-22</v>
+        <v>8.320171894490132e-22</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.829267123184655</v>
       </c>
       <c r="C83" t="n">
-        <v>9.441751328711448e-22</v>
+        <v>9.215499594518802e-22</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.83018433066752</v>
       </c>
       <c r="C84" t="n">
-        <v>1.038233014111443e-21</v>
+        <v>1.016065818113356e-21</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.831101538150385</v>
       </c>
       <c r="C85" t="n">
-        <v>1.135036723200276e-21</v>
+        <v>1.113478377695737e-21</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.83201874563325</v>
       </c>
       <c r="C86" t="n">
-        <v>1.232524938124588e-21</v>
+        <v>1.211701250461276e-21</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.832935953116114</v>
       </c>
       <c r="C87" t="n">
-        <v>1.32863633687146e-21</v>
+        <v>1.308648048672366e-21</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.833853160598979</v>
       </c>
       <c r="C88" t="n">
-        <v>1.421309597427835e-21</v>
+        <v>1.402232384591258e-21</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.834770368081844</v>
       </c>
       <c r="C89" t="n">
-        <v>1.5084833977807e-21</v>
+        <v>1.49036787048025e-21</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.835687575564709</v>
       </c>
       <c r="C90" t="n">
-        <v>1.588096415917043e-21</v>
+        <v>1.570968118601641e-21</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.836604783047574</v>
       </c>
       <c r="C91" t="n">
-        <v>1.658087329823854e-21</v>
+        <v>1.641946741217727e-21</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.837521990530439</v>
       </c>
       <c r="C92" t="n">
-        <v>1.71639481748812e-21</v>
+        <v>1.70121735059081e-21</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.838439198013304</v>
       </c>
       <c r="C93" t="n">
-        <v>1.76095755689683e-21</v>
+        <v>1.746693558983184e-21</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.839356405496169</v>
       </c>
       <c r="C94" t="n">
-        <v>1.789714226036971e-21</v>
+        <v>1.77628897865715e-21</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.840273612979034</v>
       </c>
       <c r="C95" t="n">
-        <v>1.800603502895533e-21</v>
+        <v>1.787917221875005e-21</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.841190820461899</v>
       </c>
       <c r="C96" t="n">
-        <v>1.791763250324999e-21</v>
+        <v>1.779692934219598e-21</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.842108027944764</v>
       </c>
       <c r="C97" t="n">
-        <v>1.763711691999625e-21</v>
+        <v>1.752133212077069e-21</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.843025235427629</v>
       </c>
       <c r="C98" t="n">
-        <v>1.718534126619559e-21</v>
+        <v>1.707336769469136e-21</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.843942442910494</v>
       </c>
       <c r="C99" t="n">
-        <v>1.65834341649645e-21</v>
+        <v>1.647430139822037e-21</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.844859650393359</v>
       </c>
       <c r="C100" t="n">
-        <v>1.585252423941953e-21</v>
+        <v>1.57453985656201e-21</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.845776857876224</v>
       </c>
       <c r="C101" t="n">
-        <v>1.501374011267719e-21</v>
+        <v>1.490792453115295e-21</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.846694065359089</v>
       </c>
       <c r="C102" t="n">
-        <v>1.408821040785402e-21</v>
+        <v>1.39831446290813e-21</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.847611272841954</v>
       </c>
       <c r="C103" t="n">
-        <v>1.309706374806652e-21</v>
+        <v>1.299232419366754e-21</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.848528480324818</v>
       </c>
       <c r="C104" t="n">
-        <v>1.206142875643174e-21</v>
+        <v>1.195672855917457e-21</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.849445687807683</v>
       </c>
       <c r="C105" t="n">
-        <v>1.100243405606519e-21</v>
+        <v>1.089762305986376e-21</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.850362895290548</v>
       </c>
       <c r="C106" t="n">
-        <v>9.941208270083896e-22</v>
+        <v>9.836273029998001e-22</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.851280102773413</v>
       </c>
       <c r="C107" t="n">
-        <v>8.898880021604368e-22</v>
+        <v>8.793943803839673e-22</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.852197310256278</v>
       </c>
       <c r="C108" t="n">
-        <v>7.896577933743134e-22</v>
+        <v>7.791900715651159e-22</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.853114517739143</v>
       </c>
       <c r="C109" t="n">
-        <v>6.955430629616728e-22</v>
+        <v>6.851409099694856e-22</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.854031725222008</v>
       </c>
       <c r="C110" t="n">
-        <v>6.096566732341665e-22</v>
+        <v>5.99373429023315e-22</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.854948932704873</v>
       </c>
       <c r="C111" t="n">
-        <v>5.33958082863266e-22</v>
+        <v>5.238574378847045e-22</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.855866140187738</v>
       </c>
       <c r="C112" t="n">
-        <v>4.682521099841134e-22</v>
+        <v>4.58361465085318e-22</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.856783347670603</v>
       </c>
       <c r="C113" t="n">
-        <v>4.107540799892131e-22</v>
+        <v>4.010301397075889e-22</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.857700555153468</v>
       </c>
       <c r="C114" t="n">
-        <v>3.596422333849153e-22</v>
+        <v>3.499702031955963e-22</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.858617762636332</v>
       </c>
       <c r="C115" t="n">
-        <v>3.132991166372145e-22</v>
+        <v>3.035084053588597e-22</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.859534970119197</v>
       </c>
       <c r="C116" t="n">
-        <v>2.712865192540924e-22</v>
+        <v>2.612413724930115e-22</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.860452177602062</v>
       </c>
       <c r="C117" t="n">
-        <v>2.335884049797925e-22</v>
+        <v>2.232203523046933e-22</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.861369385084927</v>
       </c>
       <c r="C118" t="n">
-        <v>2.001892736847385e-22</v>
+        <v>1.894971698319413e-22</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.862286592567792</v>
       </c>
       <c r="C119" t="n">
-        <v>1.710721324864822e-22</v>
+        <v>1.601218005173051e-22</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.863203800050657</v>
       </c>
       <c r="C120" t="n">
-        <v>1.46104964153403e-22</v>
+        <v>1.350016988803746e-22</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.864121007533522</v>
       </c>
       <c r="C121" t="n">
-        <v>1.249610426643446e-22</v>
+        <v>1.138030655097875e-22</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.865038215016387</v>
       </c>
       <c r="C122" t="n">
-        <v>1.072948147720362e-22</v>
+        <v>9.616877311915401e-23</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.865955422499252</v>
       </c>
       <c r="C123" t="n">
-        <v>9.276072722921342e-23</v>
+        <v>8.174169442209076e-23</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.866872629982117</v>
       </c>
       <c r="C124" t="n">
-        <v>8.101322678859152e-23</v>
+        <v>7.016470213219416e-23</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.867789837464982</v>
       </c>
       <c r="C125" t="n">
-        <v>7.170676020290747e-23</v>
+        <v>6.108066896308217e-23</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.868707044947846</v>
       </c>
       <c r="C126" t="n">
-        <v>6.449577422489056e-23</v>
+        <v>5.413246762836508e-23</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.869624252430711</v>
       </c>
       <c r="C127" t="n">
-        <v>5.903471560726997e-23</v>
+        <v>4.896297084165316e-23</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.870541459913576</v>
       </c>
       <c r="C128" t="n">
-        <v>5.497803110277492e-23</v>
+        <v>4.521505131655666e-23</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.871458667396441</v>
       </c>
       <c r="C129" t="n">
-        <v>5.198016746413466e-23</v>
+        <v>4.253158176668585e-23</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.872375874879306</v>
       </c>
       <c r="C130" t="n">
-        <v>4.96955714440784e-23</v>
+        <v>4.055543490565097e-23</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.873293082362171</v>
       </c>
       <c r="C131" t="n">
-        <v>4.777868979533537e-23</v>
+        <v>3.892948344706233e-23</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.874210289845036</v>
       </c>
       <c r="C132" t="n">
-        <v>4.588396927063479e-23</v>
+        <v>3.729660010453015e-23</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.875127497327901</v>
       </c>
       <c r="C133" t="n">
-        <v>4.366596803049344e-23</v>
+        <v>3.529977779238559e-23</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.876044704810766</v>
       </c>
       <c r="C134" t="n">
-        <v>4.093339148833093e-23</v>
+        <v>3.274832285176594e-23</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.876961912293631</v>
       </c>
       <c r="C135" t="n">
-        <v>3.795500876456689e-23</v>
+        <v>2.994791616321419e-23</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.877879119776496</v>
       </c>
       <c r="C136" t="n">
-        <v>3.508504179520101e-23</v>
+        <v>2.729643584284989e-23</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.878796327259361</v>
       </c>
       <c r="C137" t="n">
-        <v>3.267771251623299e-23</v>
+        <v>2.519176000679257e-23</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.879713534742226</v>
       </c>
       <c r="C138" t="n">
-        <v>3.10762447268579e-23</v>
+        <v>2.401857713588251e-23</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.880630742225091</v>
       </c>
       <c r="C139" t="n">
-        <v>3.039337715924177e-23</v>
+        <v>2.388516398546282e-23</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.881547949707956</v>
       </c>
       <c r="C140" t="n">
-        <v>3.052319708872267e-23</v>
+        <v>2.463757717122347e-23</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.88246515719082</v>
       </c>
       <c r="C141" t="n">
-        <v>3.135116243715554e-23</v>
+        <v>2.611152446275792e-23</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.883382364673685</v>
       </c>
       <c r="C142" t="n">
-        <v>3.276273112639678e-23</v>
+        <v>2.8142713629662e-23</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.88429957215655</v>
       </c>
       <c r="C143" t="n">
-        <v>3.464336107830164e-23</v>
+        <v>3.056685244152947e-23</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.885216779639415</v>
       </c>
       <c r="C144" t="n">
-        <v>3.687851021472566e-23</v>
+        <v>3.321964866795466e-23</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.88613398712228</v>
       </c>
       <c r="C145" t="n">
-        <v>3.935363645752435e-23</v>
+        <v>3.593681007853189e-23</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.887051194605145</v>
       </c>
       <c r="C146" t="n">
-        <v>4.195419772855326e-23</v>
+        <v>3.855404444285551e-23</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.88796840208801</v>
       </c>
       <c r="C147" t="n">
-        <v>4.456567014894463e-23</v>
+        <v>4.090708946370258e-23</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.888885609570875</v>
       </c>
       <c r="C148" t="n">
-        <v>4.711344085379884e-23</v>
+        <v>4.289732631367116e-23</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.88980281705374</v>
       </c>
       <c r="C149" t="n">
-        <v>4.964743462918904e-23</v>
+        <v>4.463096893507405e-23</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.890720024536605</v>
       </c>
       <c r="C150" t="n">
-        <v>5.224179949857611e-23</v>
+        <v>4.625407233649474e-23</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.89163723201947</v>
       </c>
       <c r="C151" t="n">
-        <v>5.497068348542103e-23</v>
+        <v>4.791269152651676e-23</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.892554439502335</v>
       </c>
       <c r="C152" t="n">
-        <v>5.790823461318466e-23</v>
+        <v>4.975288151372356e-23</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.8934716469852</v>
       </c>
       <c r="C153" t="n">
-        <v>6.112860090532801e-23</v>
+        <v>5.192069730669868e-23</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.894388854468064</v>
       </c>
       <c r="C154" t="n">
-        <v>6.470593038531194e-23</v>
+        <v>5.456219391402559e-23</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.895306061950929</v>
       </c>
       <c r="C155" t="n">
-        <v>6.871437107659741e-23</v>
+        <v>5.78234263442878e-23</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.896223269433794</v>
       </c>
       <c r="C156" t="n">
-        <v>7.322807100264534e-23</v>
+        <v>6.185044960606881e-23</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.897140476916659</v>
       </c>
       <c r="C157" t="n">
-        <v>7.833335840607661e-23</v>
+        <v>6.67902494718211e-23</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.898057684399524</v>
       </c>
       <c r="C158" t="n">
-        <v>8.419753562648722e-23</v>
+        <v>7.279599943219799e-23</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.898974891882389</v>
       </c>
       <c r="C159" t="n">
-        <v>9.102093775783495e-23</v>
+        <v>8.002339720946545e-23</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.899892099365254</v>
       </c>
       <c r="C160" t="n">
-        <v>9.900399733583076e-23</v>
+        <v>8.862814797200041e-23</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.900809306848119</v>
       </c>
       <c r="C161" t="n">
-        <v>1.083471468961807e-22</v>
+        <v>9.876595688817445e-23</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.901726514330984</v>
       </c>
       <c r="C162" t="n">
-        <v>1.192508189746049e-22</v>
+        <v>1.105925291263743e-22</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.902643721813849</v>
       </c>
       <c r="C163" t="n">
-        <v>1.3191544610681e-22</v>
+        <v>1.242635698549724e-22</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.903560929296713</v>
       </c>
       <c r="C164" t="n">
-        <v>1.465414608285071e-22</v>
+        <v>1.399347842423455e-22</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.904478136779578</v>
       </c>
       <c r="C165" t="n">
-        <v>1.633292956754071e-22</v>
+        <v>1.577618774568707e-22</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.905395344262443</v>
       </c>
       <c r="C166" t="n">
-        <v>1.824793831832212e-22</v>
+        <v>1.779005546669249e-22</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.906312551745308</v>
       </c>
       <c r="C167" t="n">
-        <v>2.041921558876601e-22</v>
+        <v>2.005065210408849e-22</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.907229759228173</v>
       </c>
       <c r="C168" t="n">
-        <v>2.286680463244351e-22</v>
+        <v>2.257354817471277e-22</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.908146966711038</v>
       </c>
       <c r="C169" t="n">
-        <v>2.56107487029257e-22</v>
+        <v>2.537431419540303e-22</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.909064174193903</v>
       </c>
       <c r="C170" t="n">
-        <v>2.867107224684305e-22</v>
+        <v>2.846850327563974e-22</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.909981381676768</v>
       </c>
       <c r="C171" t="n">
-        <v>3.204177784737723e-22</v>
+        <v>3.18475831682736e-22</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.910898589159633</v>
       </c>
       <c r="C172" t="n">
-        <v>3.563920394037131e-22</v>
+        <v>3.543113712450617e-22</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.911815796642498</v>
       </c>
       <c r="C173" t="n">
-        <v>3.936526352458484e-22</v>
+        <v>3.91253964771654e-22</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.912733004125363</v>
       </c>
       <c r="C174" t="n">
-        <v>4.312186959877739e-22</v>
+        <v>4.283659255907928e-22</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.913650211608228</v>
       </c>
       <c r="C175" t="n">
-        <v>4.681093516170854e-22</v>
+        <v>4.64709567030758e-22</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.914567419091093</v>
       </c>
       <c r="C176" t="n">
-        <v>5.03343732121379e-22</v>
+        <v>4.993472024198296e-22</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.915484626573958</v>
       </c>
       <c r="C177" t="n">
-        <v>5.359409674882499e-22</v>
+        <v>5.313411450862872e-22</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.916401834056822</v>
       </c>
       <c r="C178" t="n">
-        <v>5.649201877052812e-22</v>
+        <v>5.597537083583982e-22</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.917319041539687</v>
       </c>
       <c r="C179" t="n">
-        <v>5.893005227600969e-22</v>
+        <v>5.8364720556447e-22</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.918236249022552</v>
       </c>
       <c r="C180" t="n">
-        <v>6.081135035650214e-22</v>
+        <v>6.020957797860802e-22</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.919153456505417</v>
       </c>
       <c r="C181" t="n">
-        <v>6.209305592332423e-22</v>
+        <v>6.146886052546673e-22</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.920070663988282</v>
       </c>
       <c r="C182" t="n">
-        <v>6.280598740327228e-22</v>
+        <v>6.217176773148411e-22</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.920987871471147</v>
       </c>
       <c r="C183" t="n">
-        <v>6.298626011959557e-22</v>
+        <v>6.235255205899987e-22</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.921905078954012</v>
       </c>
       <c r="C184" t="n">
-        <v>6.266998939554337e-22</v>
+        <v>6.204546597035381e-22</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.922822286436877</v>
       </c>
       <c r="C185" t="n">
-        <v>6.189329055436496e-22</v>
+        <v>6.128476192788567e-22</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.923739493919742</v>
       </c>
       <c r="C186" t="n">
-        <v>6.069227891930956e-22</v>
+        <v>6.010469239393515e-22</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.924656701402607</v>
       </c>
       <c r="C187" t="n">
-        <v>5.910306981362648e-22</v>
+        <v>5.853950983084206e-22</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.925573908885472</v>
       </c>
       <c r="C188" t="n">
-        <v>5.716177856056496e-22</v>
+        <v>5.662346670094609e-22</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.926491116368337</v>
       </c>
       <c r="C189" t="n">
-        <v>5.490452799853085e-22</v>
+        <v>5.439082372486406e-22</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.927408323851202</v>
       </c>
       <c r="C190" t="n">
-        <v>5.237221666494464e-22</v>
+        <v>5.188108955717349e-22</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.928325531334067</v>
       </c>
       <c r="C191" t="n">
-        <v>4.961869845071815e-22</v>
+        <v>4.914800926880761e-22</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.929242738816932</v>
       </c>
       <c r="C192" t="n">
-        <v>4.670000296840467e-22</v>
+        <v>4.62477187939965e-22</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.930159946299796</v>
       </c>
       <c r="C193" t="n">
-        <v>4.367215983055742e-22</v>
+        <v>4.323635406697023e-22</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.931077153782661</v>
       </c>
       <c r="C194" t="n">
-        <v>4.059119864972972e-22</v>
+        <v>4.017005102195897e-22</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.931994361265526</v>
       </c>
       <c r="C195" t="n">
-        <v>3.751314903847477e-22</v>
+        <v>3.710494559319279e-22</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.932911568748391</v>
       </c>
       <c r="C196" t="n">
-        <v>3.449404060934587e-22</v>
+        <v>3.40971737149018e-22</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.933828776231256</v>
       </c>
       <c r="C197" t="n">
-        <v>3.158990297489627e-22</v>
+        <v>3.120287132131611e-22</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.934745983714121</v>
       </c>
       <c r="C198" t="n">
-        <v>2.88567657476805e-22</v>
+        <v>2.847817434666708e-22</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.935663191196986</v>
       </c>
       <c r="C199" t="n">
-        <v>2.634263187883829e-22</v>
+        <v>2.597119923440566e-22</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.936580398679851</v>
       </c>
       <c r="C200" t="n">
-        <v>2.404953318076976e-22</v>
+        <v>2.368413235765375e-22</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.937497606162716</v>
       </c>
       <c r="C201" t="n">
-        <v>2.196316378881835e-22</v>
+        <v>2.16028370077737e-22</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.938414813645581</v>
       </c>
       <c r="C202" t="n">
-        <v>2.006919823398698e-22</v>
+        <v>1.971315688930094e-22</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.939332021128445</v>
       </c>
       <c r="C203" t="n">
-        <v>1.835331104727856e-22</v>
+        <v>1.800093570677091e-22</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.94024922861131</v>
       </c>
       <c r="C204" t="n">
-        <v>1.680117675969606e-22</v>
+        <v>1.645201716471905e-22</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.941166436094175</v>
       </c>
       <c r="C205" t="n">
-        <v>1.539846990224239e-22</v>
+        <v>1.505224496768078e-22</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.94208364357704</v>
       </c>
       <c r="C206" t="n">
-        <v>1.413086500592048e-22</v>
+        <v>1.378746282019155e-22</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.943000851059905</v>
       </c>
       <c r="C207" t="n">
-        <v>1.298403660173327e-22</v>
+        <v>1.264351442678678e-22</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.94391805854277</v>
       </c>
       <c r="C208" t="n">
-        <v>1.194379850910095e-22</v>
+        <v>1.160637996151751e-22</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.944835266025635</v>
       </c>
       <c r="C209" t="n">
-        <v>1.100018890397322e-22</v>
+        <v>1.066617846296197e-22</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.9457524735085</v>
       </c>
       <c r="C210" t="n">
-        <v>1.014812976242973e-22</v>
+        <v>9.817813932088482e-23</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.946669680991365</v>
       </c>
       <c r="C211" t="n">
-        <v>9.382815108240099e-23</v>
+        <v>9.05645691188798e-23</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.94758688847423</v>
       </c>
       <c r="C212" t="n">
-        <v>8.699438965173932e-23</v>
+        <v>8.377277945351388e-23</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.948504095957095</v>
       </c>
       <c r="C213" t="n">
-        <v>8.093195357000841e-23</v>
+        <v>7.775447575469648e-23</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.94942130343996</v>
       </c>
       <c r="C214" t="n">
-        <v>7.559278307490426e-23</v>
+        <v>7.246136345233686e-23</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.950338510922824</v>
       </c>
       <c r="C215" t="n">
-        <v>7.092881840412512e-23</v>
+        <v>6.784514797634646e-23</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.951255718405689</v>
       </c>
       <c r="C216" t="n">
-        <v>6.689199979536254e-23</v>
+        <v>6.385753475663017e-23</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.952172925888554</v>
       </c>
       <c r="C217" t="n">
-        <v>6.343426748631501e-23</v>
+        <v>6.045022922309967e-23</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.953090133371419</v>
       </c>
       <c r="C218" t="n">
-        <v>6.050756171467864e-23</v>
+        <v>5.757493680566431e-23</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.954007340854284</v>
       </c>
       <c r="C219" t="n">
-        <v>5.806382271814948e-23</v>
+        <v>5.518336293423344e-23</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.954924548337149</v>
       </c>
       <c r="C220" t="n">
-        <v>5.605499073442361e-23</v>
+        <v>5.322721303871634e-23</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.955841755820014</v>
       </c>
       <c r="C221" t="n">
-        <v>5.443300600119712e-23</v>
+        <v>5.165819254902238e-23</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.956758963302879</v>
       </c>
       <c r="C222" t="n">
-        <v>5.31498087561661e-23</v>
+        <v>5.042800689506088e-23</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.957676170785744</v>
       </c>
       <c r="C223" t="n">
-        <v>5.215733923702663e-23</v>
+        <v>4.948836150674116e-23</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.958593378268609</v>
       </c>
       <c r="C224" t="n">
-        <v>5.140753768147476e-23</v>
+        <v>4.879096181397254e-23</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.959510585751474</v>
       </c>
       <c r="C225" t="n">
-        <v>5.085234432720661e-23</v>
+        <v>4.828751324666437e-23</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.960427793234339</v>
       </c>
       <c r="C226" t="n">
-        <v>5.044369941191823e-23</v>
+        <v>4.792972123472595e-23</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.961345000717204</v>
       </c>
       <c r="C227" t="n">
-        <v>5.013354317330569e-23</v>
+        <v>4.766929120806662e-23</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.962262208200069</v>
       </c>
       <c r="C228" t="n">
-        <v>4.987381584906512e-23</v>
+        <v>4.745792859659573e-23</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.963179415682934</v>
       </c>
       <c r="C229" t="n">
-        <v>4.961645767689254e-23</v>
+        <v>4.724733883022257e-23</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.964096623165799</v>
       </c>
       <c r="C230" t="n">
-        <v>4.931340889448407e-23</v>
+        <v>4.698922733885649e-23</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.965013830648664</v>
       </c>
       <c r="C231" t="n">
-        <v>4.891660973953578e-23</v>
+        <v>4.663529955240681e-23</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.965931038131528</v>
       </c>
       <c r="C232" t="n">
-        <v>4.837800044974375e-23</v>
+        <v>4.613726090078287e-23</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.966848245614393</v>
       </c>
       <c r="C233" t="n">
-        <v>4.764952126280406e-23</v>
+        <v>4.544681681389399e-23</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.967765453097258</v>
       </c>
       <c r="C234" t="n">
-        <v>4.668311241641276e-23</v>
+        <v>4.451567272164948e-23</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.968682660580123</v>
       </c>
       <c r="C235" t="n">
-        <v>4.543071414826665e-23</v>
+        <v>4.329553405395937e-23</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.969599868062988</v>
       </c>
       <c r="C236" t="n">
-        <v>4.384490625746094e-23</v>
+        <v>4.173875380179235e-23</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.970517075545853</v>
       </c>
       <c r="C237" t="n">
-        <v>4.192037620357848e-23</v>
+        <v>3.984031930094889e-23</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.971434283028718</v>
       </c>
       <c r="C238" t="n">
-        <v>3.971932101218161e-23</v>
+        <v>3.766357186562875e-23</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.972351490511583</v>
       </c>
       <c r="C239" t="n">
-        <v>3.731001525017587e-23</v>
+        <v>3.527800636951122e-23</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.973268697994448</v>
       </c>
       <c r="C240" t="n">
-        <v>3.476073348446682e-23</v>
+        <v>3.275311768627559e-23</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.974185905477313</v>
       </c>
       <c r="C241" t="n">
-        <v>3.213975028195999e-23</v>
+        <v>3.01584006896012e-23</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.975103112960177</v>
       </c>
       <c r="C242" t="n">
-        <v>2.951534020956094e-23</v>
+        <v>2.756335025316731e-23</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.976020320443042</v>
       </c>
       <c r="C243" t="n">
-        <v>2.695577783417518e-23</v>
+        <v>2.503746125065325e-23</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.976937527925907</v>
       </c>
       <c r="C244" t="n">
-        <v>2.452933772270828e-23</v>
+        <v>2.26502285557383e-23</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.977854735408772</v>
       </c>
       <c r="C245" t="n">
-        <v>2.230429444206579e-23</v>
+        <v>2.047114704210178e-23</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.978771942891637</v>
       </c>
       <c r="C246" t="n">
-        <v>2.034892255915323e-23</v>
+        <v>1.856971158342298e-23</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.979689150374502</v>
       </c>
       <c r="C247" t="n">
-        <v>1.873149664087616e-23</v>
+        <v>1.701541705338121e-23</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.980606357857367</v>
       </c>
       <c r="C248" t="n">
-        <v>1.752029125414012e-23</v>
+        <v>1.587775832565576e-23</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.981523565340232</v>
       </c>
       <c r="C249" t="n">
-        <v>1.678358096585064e-23</v>
+        <v>1.522623027392595e-23</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.982440772823097</v>
       </c>
       <c r="C250" t="n">
-        <v>1.658896732786427e-23</v>
+        <v>1.512963726549917e-23</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.983357980305962</v>
       </c>
       <c r="C251" t="n">
-        <v>1.695424625018011e-23</v>
+        <v>1.560568360222471e-23</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.984275187788826</v>
       </c>
       <c r="C252" t="n">
-        <v>1.781404445551203e-23</v>
+        <v>1.658674287328798e-23</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.985192395271691</v>
       </c>
       <c r="C253" t="n">
-        <v>1.909508794520733e-23</v>
+        <v>1.799708261073036e-23</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.986109602754556</v>
       </c>
       <c r="C254" t="n">
-        <v>2.072410272061217e-23</v>
+        <v>1.976097034659189e-23</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.987026810237421</v>
       </c>
       <c r="C255" t="n">
-        <v>2.262781478307297e-23</v>
+        <v>2.180267361291297e-23</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.987944017720286</v>
       </c>
       <c r="C256" t="n">
-        <v>2.47329501339362e-23</v>
+        <v>2.404645994173403e-23</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.988861225203151</v>
       </c>
       <c r="C257" t="n">
-        <v>2.696623477454829e-23</v>
+        <v>2.641659686509545e-23</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.989778432686016</v>
       </c>
       <c r="C258" t="n">
-        <v>2.925439470625569e-23</v>
+        <v>2.883735191503762e-23</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.990695640168881</v>
       </c>
       <c r="C259" t="n">
-        <v>3.152415593040484e-23</v>
+        <v>3.123299262360098e-23</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.991612847651746</v>
       </c>
       <c r="C260" t="n">
-        <v>3.370224444834219e-23</v>
+        <v>3.352778652282592e-23</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.992530055134611</v>
       </c>
       <c r="C261" t="n">
-        <v>3.571538626141418e-23</v>
+        <v>3.564600114475282e-23</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.993447262617476</v>
       </c>
       <c r="C262" t="n">
-        <v>3.749030737096725e-23</v>
+        <v>3.751190402142211e-23</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.994364470100341</v>
       </c>
       <c r="C263" t="n">
-        <v>3.895373377834786e-23</v>
+        <v>3.904976268487418e-23</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.995281677583206</v>
       </c>
       <c r="C264" t="n">
-        <v>4.003426748223693e-23</v>
+        <v>4.018579327339706e-23</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.996198885066071</v>
       </c>
       <c r="C265" t="n">
-        <v>4.070863717635094e-23</v>
+        <v>4.089620132393053e-23</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.997116092548936</v>
       </c>
       <c r="C266" t="n">
-        <v>4.100463834503782e-23</v>
+        <v>4.121023566161138e-23</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.998033300031801</v>
       </c>
       <c r="C267" t="n">
-        <v>4.095253113732197e-23</v>
+        <v>4.115970516904483e-23</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.998950507514666</v>
       </c>
       <c r="C268" t="n">
-        <v>4.058257570222776e-23</v>
+        <v>4.077641872883607e-23</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.999867714997531</v>
       </c>
       <c r="C269" t="n">
-        <v>3.992503218877954e-23</v>
+        <v>4.009218522359027e-23</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>4.000784922480396</v>
       </c>
       <c r="C270" t="n">
-        <v>3.901016074600175e-23</v>
+        <v>3.913881353591264e-23</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>4.00170212996326</v>
       </c>
       <c r="C271" t="n">
-        <v>3.786822152291874e-23</v>
+        <v>3.794811254840837e-23</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>4.002619337446125</v>
       </c>
       <c r="C272" t="n">
-        <v>3.65294746685549e-23</v>
+        <v>3.655189114368267e-23</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>4.00353654492899</v>
       </c>
       <c r="C273" t="n">
-        <v>3.502418033193462e-23</v>
+        <v>3.498195820434071e-23</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>4.004453752411855</v>
       </c>
       <c r="C274" t="n">
-        <v>3.338259866208226e-23</v>
+        <v>3.327012261298768e-23</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>4.00537095989472</v>
       </c>
       <c r="C275" t="n">
-        <v>3.163498980802222e-23</v>
+        <v>3.144819325222878e-23</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>4.006288167377585</v>
       </c>
       <c r="C276" t="n">
-        <v>2.981161391877888e-23</v>
+        <v>2.954797900466922e-23</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>4.00720537486045</v>
       </c>
       <c r="C277" t="n">
-        <v>2.794273114337662e-23</v>
+        <v>2.760128875291417e-23</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>4.008122582343315</v>
       </c>
       <c r="C278" t="n">
-        <v>2.605860163083984e-23</v>
+        <v>2.563993137956884e-23</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>4.009039789826179</v>
       </c>
       <c r="C279" t="n">
-        <v>2.418948553019469e-23</v>
+        <v>2.369571576724027e-23</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>4.009956997309045</v>
       </c>
       <c r="C280" t="n">
-        <v>2.236564299046019e-23</v>
+        <v>2.180045079852808e-23</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>4.010874204791909</v>
       </c>
       <c r="C281" t="n">
-        <v>2.061733416066774e-23</v>
+        <v>1.998594535604474e-23</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>4.011791412274774</v>
       </c>
       <c r="C282" t="n">
-        <v>1.897481918983653e-23</v>
+        <v>1.828400832239007e-23</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>4.012708619757639</v>
       </c>
       <c r="C283" t="n">
-        <v>1.74662241354183e-23</v>
+        <v>1.672419809861404e-23</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>4.013625827240504</v>
       </c>
       <c r="C284" t="n">
-        <v>1.609740837801705e-23</v>
+        <v>1.531259201954467e-23</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>4.014543034723369</v>
       </c>
       <c r="C285" t="n">
-        <v>1.486098737183694e-23</v>
+        <v>1.404130119078952e-23</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>4.015460242206234</v>
       </c>
       <c r="C286" t="n">
-        <v>1.374940117110065e-23</v>
+        <v>1.290225175193681e-23</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>4.016377449689099</v>
       </c>
       <c r="C287" t="n">
-        <v>1.275508983003089e-23</v>
+        <v>1.188736984257474e-23</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>4.017294657171964</v>
       </c>
       <c r="C288" t="n">
-        <v>1.187049340285031e-23</v>
+        <v>1.098858160229152e-23</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>4.018211864654829</v>
       </c>
       <c r="C289" t="n">
-        <v>1.108805194378163e-23</v>
+        <v>1.01978131706754e-23</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>4.019129072137694</v>
       </c>
       <c r="C290" t="n">
-        <v>1.040020550704753e-23</v>
+        <v>9.506990687314566e-24</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>4.020046279620558</v>
       </c>
       <c r="C291" t="n">
-        <v>9.799394146870687e-24</v>
+        <v>8.908040291797244e-24</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>4.020963487103423</v>
       </c>
       <c r="C292" t="n">
-        <v>9.278057917473801e-24</v>
+        <v>8.392888123711655e-24</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>4.021880694586288</v>
       </c>
       <c r="C293" t="n">
-        <v>8.828636873079552e-24</v>
+        <v>7.953460322646012e-24</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>4.022797902069153</v>
       </c>
       <c r="C294" t="n">
-        <v>8.443571067910631e-24</v>
+        <v>7.581683028188531e-24</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>4.023715109552018</v>
       </c>
       <c r="C295" t="n">
-        <v>8.115300556189728e-24</v>
+        <v>7.269482379927429e-24</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>4.024632317034883</v>
       </c>
       <c r="C296" t="n">
-        <v>7.836265392139526e-24</v>
+        <v>7.008784517450923e-24</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>4.025549524517748</v>
       </c>
       <c r="C297" t="n">
-        <v>7.598905629982717e-24</v>
+        <v>6.79151558034723e-24</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>4.026466732000613</v>
       </c>
       <c r="C298" t="n">
-        <v>7.395661323941985e-24</v>
+        <v>6.609601708204564e-24</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>4.027383939483478</v>
       </c>
       <c r="C299" t="n">
-        <v>7.218972528240021e-24</v>
+        <v>6.454969040611145e-24</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>4.028301146966343</v>
       </c>
       <c r="C300" t="n">
-        <v>7.061279297099512e-24</v>
+        <v>6.319543717155188e-24</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>4.029218354449208</v>
       </c>
       <c r="C301" t="n">
-        <v>6.915031295452935e-24</v>
+        <v>6.195262147136849e-24</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>4.030135561932073</v>
       </c>
       <c r="C302" t="n">
-        <v>6.774796529528519e-24</v>
+        <v>6.076324334884264e-24</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>4.031052769414938</v>
       </c>
       <c r="C303" t="n">
-        <v>6.63990965076793e-24</v>
+        <v>5.962023776707684e-24</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>4.031969976897803</v>
       </c>
       <c r="C304" t="n">
-        <v>6.510356568528845e-24</v>
+        <v>5.852349883302634e-24</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>4.032887184380668</v>
       </c>
       <c r="C305" t="n">
-        <v>6.386123192168942e-24</v>
+        <v>5.747292065364629e-24</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>4.033804391863533</v>
       </c>
       <c r="C306" t="n">
-        <v>6.267195431045905e-24</v>
+        <v>5.646839733589193e-24</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>4.034721599346398</v>
       </c>
       <c r="C307" t="n">
-        <v>6.153559194517411e-24</v>
+        <v>5.550982298671849e-24</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>4.035638806829263</v>
       </c>
       <c r="C308" t="n">
-        <v>6.04520039194114e-24</v>
+        <v>5.459709171308114e-24</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>4.036556014312128</v>
       </c>
       <c r="C309" t="n">
-        <v>5.942104932674769e-24</v>
+        <v>5.373009762193511e-24</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>4.037473221794992</v>
       </c>
       <c r="C310" t="n">
-        <v>5.844258726075981e-24</v>
+        <v>5.290873482023563e-24</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>4.038390429277857</v>
       </c>
       <c r="C311" t="n">
-        <v>5.751647681502452e-24</v>
+        <v>5.213289741493786e-24</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>4.039307636760722</v>
       </c>
       <c r="C312" t="n">
-        <v>5.664257708311864e-24</v>
+        <v>5.140247951299702e-24</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>4.040224844243587</v>
       </c>
       <c r="C313" t="n">
-        <v>5.582074715861894e-24</v>
+        <v>5.071737522136835e-24</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>4.041142051726452</v>
       </c>
       <c r="C314" t="n">
-        <v>5.505084613510221e-24</v>
+        <v>5.007747864700702e-24</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>4.042059259209317</v>
       </c>
       <c r="C315" t="n">
-        <v>5.433273310614524e-24</v>
+        <v>4.948268389686827e-24</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>4.042976466692181</v>
       </c>
       <c r="C316" t="n">
-        <v>5.366626716532548e-24</v>
+        <v>4.893288507790782e-24</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>4.043893674175047</v>
       </c>
       <c r="C317" t="n">
-        <v>5.305130740621783e-24</v>
+        <v>4.842797629707932e-24</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>4.044810881657911</v>
       </c>
       <c r="C318" t="n">
-        <v>5.248771292240147e-24</v>
+        <v>4.796785166133995e-24</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>4.045728089140776</v>
       </c>
       <c r="C319" t="n">
-        <v>5.197534280745147e-24</v>
+        <v>4.755240527764351e-24</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>4.046645296623641</v>
       </c>
       <c r="C320" t="n">
-        <v>5.151405615494522e-24</v>
+        <v>4.718153125294569e-24</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>4.047562504106506</v>
       </c>
       <c r="C321" t="n">
-        <v>5.110371205845949e-24</v>
+        <v>4.685512369420168e-24</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>4.048479711589371</v>
       </c>
       <c r="C322" t="n">
-        <v>5.07441696115711e-24</v>
+        <v>4.657307670836672e-24</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>4.049396919072236</v>
       </c>
       <c r="C323" t="n">
-        <v>5.04352879078568e-24</v>
+        <v>4.633528440239598e-24</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>4.050314126555101</v>
       </c>
       <c r="C324" t="n">
-        <v>5.017692604089341e-24</v>
+        <v>4.614164088324469e-24</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>4.051231334037966</v>
       </c>
       <c r="C325" t="n">
-        <v>4.996894310425772e-24</v>
+        <v>4.599204025786807e-24</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>4.052148541520831</v>
       </c>
       <c r="C326" t="n">
-        <v>4.981119819152654e-24</v>
+        <v>4.58863766332213e-24</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>4.053065749003696</v>
       </c>
       <c r="C327" t="n">
-        <v>4.970355039627661e-24</v>
+        <v>4.582454411625958e-24</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>4.053982956486561</v>
       </c>
       <c r="C328" t="n">
-        <v>4.964585881208477e-24</v>
+        <v>4.580643681393818e-24</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>4.054900163969426</v>
       </c>
       <c r="C329" t="n">
-        <v>4.96379825325278e-24</v>
+        <v>4.583194883321225e-24</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>4.05581737145229</v>
       </c>
       <c r="C330" t="n">
-        <v>4.967978065118249e-24</v>
+        <v>4.590097428103702e-24</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>4.056734578935155</v>
       </c>
       <c r="C331" t="n">
-        <v>4.977111226162564e-24</v>
+        <v>4.60134072643677e-24</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>4.05765178641802</v>
       </c>
       <c r="C332" t="n">
-        <v>4.991183645743402e-24</v>
+        <v>4.616914189015949e-24</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>4.058568993900885</v>
       </c>
       <c r="C333" t="n">
-        <v>5.010181233218445e-24</v>
+        <v>4.636807226536761e-24</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>4.05948620138375</v>
       </c>
       <c r="C334" t="n">
-        <v>5.034089897945371e-24</v>
+        <v>4.661009249694726e-24</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>4.060403408866615</v>
       </c>
       <c r="C335" t="n">
-        <v>5.06289554928186e-24</v>
+        <v>4.689509669185365e-24</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>4.06132061634948</v>
       </c>
       <c r="C336" t="n">
-        <v>5.09658409658559e-24</v>
+        <v>4.722297895704201e-24</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>4.062237823832345</v>
       </c>
       <c r="C337" t="n">
-        <v>5.135141449214242e-24</v>
+        <v>4.759363339946751e-24</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>4.06315503131521</v>
       </c>
       <c r="C338" t="n">
-        <v>5.178553516525493e-24</v>
+        <v>4.800695412608538e-24</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>4.064072238798075</v>
       </c>
       <c r="C339" t="n">
-        <v>5.226966755091789e-24</v>
+        <v>4.846454504660611e-24</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>4.06498944628094</v>
       </c>
       <c r="C340" t="n">
-        <v>5.282023300996408e-24</v>
+        <v>4.898393882386358e-24</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>4.065906653763805</v>
       </c>
       <c r="C341" t="n">
-        <v>5.346179170785679e-24</v>
+        <v>4.959133582047224e-24</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>4.06682386124667</v>
       </c>
       <c r="C342" t="n">
-        <v>5.421898529185298e-24</v>
+        <v>5.031302317588385e-24</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>4.067741068729535</v>
       </c>
       <c r="C343" t="n">
-        <v>5.511645540920958e-24</v>
+        <v>5.117528802955011e-24</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>4.0686582762124</v>
       </c>
       <c r="C344" t="n">
-        <v>5.617884370718355e-24</v>
+        <v>5.220441752092278e-24</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>4.069575483695265</v>
       </c>
       <c r="C345" t="n">
-        <v>5.743079183303182e-24</v>
+        <v>5.342669878945356e-24</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>4.07049269117813</v>
       </c>
       <c r="C346" t="n">
-        <v>5.889694143401134e-24</v>
+        <v>5.486841897459422e-24</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>4.071409898660995</v>
       </c>
       <c r="C347" t="n">
-        <v>6.060193415737905e-24</v>
+        <v>5.655586521579646e-24</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>4.07232710614386</v>
       </c>
       <c r="C348" t="n">
-        <v>6.257041165039191e-24</v>
+        <v>5.851532465251202e-24</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>4.073244313626724</v>
       </c>
       <c r="C349" t="n">
-        <v>6.482701556030684e-24</v>
+        <v>6.077308442419262e-24</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>4.074161521109589</v>
       </c>
       <c r="C350" t="n">
-        <v>6.739638753438081e-24</v>
+        <v>6.335543167028999e-24</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>4.075078728592454</v>
       </c>
       <c r="C351" t="n">
-        <v>7.030316921987076e-24</v>
+        <v>6.62886535302559e-24</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>4.075995936075319</v>
       </c>
       <c r="C352" t="n">
-        <v>7.357200226403362e-24</v>
+        <v>6.959903714354202e-24</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>4.076913143558183</v>
       </c>
       <c r="C353" t="n">
-        <v>7.722752831412261e-24</v>
+        <v>7.331286964959634e-24</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>4.077830351041049</v>
       </c>
       <c r="C354" t="n">
-        <v>8.129438901740589e-24</v>
+        <v>7.745643818788196e-24</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>4.078747558523913</v>
       </c>
       <c r="C355" t="n">
-        <v>8.579722602112463e-24</v>
+        <v>8.205602989783456e-24</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>4.079664766006778</v>
       </c>
       <c r="C356" t="n">
-        <v>9.076068097254816e-24</v>
+        <v>8.713793191891847e-24</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>4.080581973489643</v>
       </c>
       <c r="C357" t="n">
-        <v>9.620939551892932e-24</v>
+        <v>9.272843139058129e-24</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>4.081499180972508</v>
       </c>
       <c r="C358" t="n">
-        <v>1.02168011307525e-23</v>
+        <v>9.88538154522747e-24</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>4.082416388455373</v>
       </c>
       <c r="C359" t="n">
-        <v>1.086611699855923e-23</v>
+        <v>1.055403712434505e-23</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>4.083333595938238</v>
       </c>
       <c r="C360" t="n">
-        <v>1.15713513200388e-23</v>
+        <v>1.128143859035603e-23</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>4.084250803421103</v>
       </c>
       <c r="C361" t="n">
-        <v>1.233496825991691e-23</v>
+        <v>1.207021465720559e-23</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>4.085168010903968</v>
       </c>
       <c r="C362" t="n">
-        <v>1.315940956028881e-23</v>
+        <v>1.292297048025964e-23</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>4.086085218386833</v>
       </c>
       <c r="C363" t="n">
-        <v>1.404126049492441e-23</v>
+        <v>1.383615805307753e-23</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>4.087002425869698</v>
       </c>
       <c r="C364" t="n">
-        <v>1.496345150103914e-23</v>
+        <v>1.47918827674624e-23</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>4.087919633352563</v>
       </c>
       <c r="C365" t="n">
-        <v>1.590697067454373e-23</v>
+        <v>1.577020927331158e-23</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>4.088836840835428</v>
       </c>
       <c r="C366" t="n">
-        <v>1.685280611134893e-23</v>
+        <v>1.675120222052245e-23</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>4.089754048318293</v>
       </c>
       <c r="C367" t="n">
-        <v>1.778194590736548e-23</v>
+        <v>1.771492625899234e-23</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>4.090671255801158</v>
       </c>
       <c r="C368" t="n">
-        <v>1.867537815850408e-23</v>
+        <v>1.864144603861859e-23</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>4.091588463284022</v>
       </c>
       <c r="C369" t="n">
-        <v>1.95140909606755e-23</v>
+        <v>1.951082620929857e-23</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>4.092505670766887</v>
       </c>
       <c r="C370" t="n">
-        <v>2.027907240979045e-23</v>
+        <v>2.030313142092963e-23</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>4.093422878249752</v>
       </c>
       <c r="C371" t="n">
-        <v>2.095131060175967e-23</v>
+        <v>2.09984263234091e-23</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>4.094340085732617</v>
       </c>
       <c r="C372" t="n">
-        <v>2.15117936324939e-23</v>
+        <v>2.157677556663435e-23</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>4.095257293215482</v>
       </c>
       <c r="C373" t="n">
-        <v>2.194150959790387e-23</v>
+        <v>2.201824380050272e-23</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>4.096174500698347</v>
       </c>
       <c r="C374" t="n">
-        <v>2.22214465939003e-23</v>
+        <v>2.230289567491155e-23</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>4.097091708181212</v>
       </c>
       <c r="C375" t="n">
-        <v>2.233259271639395e-23</v>
+        <v>2.241079583975821e-23</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>4.098008915664077</v>
       </c>
       <c r="C376" t="n">
-        <v>2.225629011491023e-23</v>
+        <v>2.232238397068476e-23</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>4.098926123146942</v>
       </c>
       <c r="C377" t="n">
-        <v>2.199202317981489e-23</v>
+        <v>2.203731662772482e-23</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>4.099843330629807</v>
       </c>
       <c r="C378" t="n">
-        <v>2.156574536853333e-23</v>
+        <v>2.158328731552737e-23</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>4.100760538112672</v>
       </c>
       <c r="C379" t="n">
-        <v>2.100550440639048e-23</v>
+        <v>2.099020785920486e-23</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>4.101677745595537</v>
       </c>
       <c r="C380" t="n">
-        <v>2.033934801871126e-23</v>
+        <v>2.02879900838698e-23</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>4.102594953078402</v>
       </c>
       <c r="C381" t="n">
-        <v>1.959532393082062e-23</v>
+        <v>1.950654581463467e-23</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>4.103512160561267</v>
       </c>
       <c r="C382" t="n">
-        <v>1.880147986804349e-23</v>
+        <v>1.867578687661194e-23</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>4.104429368044132</v>
       </c>
       <c r="C383" t="n">
-        <v>1.798586355570479e-23</v>
+        <v>1.782562509491409e-23</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>4.105346575526997</v>
       </c>
       <c r="C384" t="n">
-        <v>1.717652271912946e-23</v>
+        <v>1.698597229465363e-23</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>4.106263783009862</v>
       </c>
       <c r="C385" t="n">
-        <v>1.640150508364242e-23</v>
+        <v>1.618674030094301e-23</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>4.107180990492727</v>
       </c>
       <c r="C386" t="n">
-        <v>1.568582955714118e-23</v>
+        <v>1.545456897593461e-23</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>4.108098197975592</v>
       </c>
       <c r="C387" t="n">
-        <v>1.503389287618292e-23</v>
+        <v>1.479382051652055e-23</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>4.109015405458456</v>
       </c>
       <c r="C388" t="n">
-        <v>1.444149619297033e-23</v>
+        <v>1.419957150423245e-23</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>4.109932612941321</v>
       </c>
       <c r="C389" t="n">
-        <v>1.39044122034927e-23</v>
+        <v>1.366686777999816e-23</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>4.110849820424186</v>
       </c>
       <c r="C390" t="n">
-        <v>1.341841360373927e-23</v>
+        <v>1.319075518474554e-23</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>4.111767027907051</v>
       </c>
       <c r="C391" t="n">
-        <v>1.297927308969933e-23</v>
+        <v>1.276627955940245e-23</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>4.112684235389915</v>
       </c>
       <c r="C392" t="n">
-        <v>1.25827633573625e-23</v>
+        <v>1.23884867448971e-23</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>4.11360144287278</v>
       </c>
       <c r="C393" t="n">
-        <v>1.222465710271728e-23</v>
+        <v>1.205242258215661e-23</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>4.114518650355645</v>
       </c>
       <c r="C394" t="n">
-        <v>1.190072702175335e-23</v>
+        <v>1.175313291210924e-23</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>4.11543585783851</v>
       </c>
       <c r="C395" t="n">
-        <v>1.160674581045998e-23</v>
+        <v>1.148566357568283e-23</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>4.116353065321375</v>
       </c>
       <c r="C396" t="n">
-        <v>1.133848616482641e-23</v>
+        <v>1.124506041380526e-23</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>4.11727027280424</v>
       </c>
       <c r="C397" t="n">
-        <v>1.109172078084194e-23</v>
+        <v>1.102636926740438e-23</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>4.118187480287105</v>
       </c>
       <c r="C398" t="n">
-        <v>1.086222235449582e-23</v>
+        <v>1.082463597740804e-23</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>4.11910468776997</v>
       </c>
       <c r="C399" t="n">
-        <v>1.064576358177732e-23</v>
+        <v>1.063490638474412e-23</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>4.120021895252835</v>
       </c>
       <c r="C400" t="n">
-        <v>1.043811715867571e-23</v>
+        <v>1.045222633034046e-23</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>4.1209391027357</v>
       </c>
       <c r="C401" t="n">
-        <v>1.023505578118024e-23</v>
+        <v>1.027164165512492e-23</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>4.121856310218565</v>
       </c>
       <c r="C402" t="n">
-        <v>1.00323521452802e-23</v>
+        <v>1.008819820002538e-23</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>4.12277351770143</v>
       </c>
       <c r="C403" t="n">
-        <v>9.825778946964849e-24</v>
+        <v>9.896941805969671e-24</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>4.123690725184295</v>
       </c>
       <c r="C404" t="n">
-        <v>9.611191230149556e-24</v>
+        <v>9.693014475642805e-24</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>4.12460793266716</v>
       </c>
       <c r="C405" t="n">
-        <v>9.38731013620604e-24</v>
+        <v>9.474905095865739e-24</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>4.125525140150025</v>
       </c>
       <c r="C406" t="n">
-        <v>9.156396896880674e-24</v>
+        <v>9.245236492550948e-24</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>4.12644234763289</v>
       </c>
       <c r="C407" t="n">
-        <v>8.920931778109349e-24</v>
+        <v>9.0068872686964e-24</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>4.127359555115754</v>
       </c>
       <c r="C408" t="n">
-        <v>8.683395045827957e-24</v>
+        <v>8.762736027300064e-24</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>4.128276762598619</v>
       </c>
       <c r="C409" t="n">
-        <v>8.446266965972386e-24</v>
+        <v>8.51566137135991e-24</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>4.129193970081484</v>
       </c>
       <c r="C410" t="n">
-        <v>8.212027804478527e-24</v>
+        <v>8.268541903873907e-24</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>4.130111177564349</v>
       </c>
       <c r="C411" t="n">
-        <v>7.983157827282275e-24</v>
+        <v>8.024256227840025e-24</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>4.131028385047214</v>
       </c>
       <c r="C412" t="n">
-        <v>7.762137300319517e-24</v>
+        <v>7.785682946256234e-24</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>4.131945592530079</v>
       </c>
       <c r="C413" t="n">
-        <v>7.551446489526144e-24</v>
+        <v>7.555700662120501e-24</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>4.132862800012944</v>
       </c>
       <c r="C414" t="n">
-        <v>7.353565660838047e-24</v>
+        <v>7.337187978430793e-24</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>4.133780007495809</v>
       </c>
       <c r="C415" t="n">
-        <v>7.170975080191119e-24</v>
+        <v>7.133023498185088e-24</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>4.134697214978674</v>
       </c>
       <c r="C416" t="n">
-        <v>7.00562101890249e-24</v>
+        <v>6.945550865844294e-24</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>4.135614422461539</v>
       </c>
       <c r="C417" t="n">
-        <v>6.856787151603329e-24</v>
+        <v>6.774446322907122e-24</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>4.136531629944404</v>
       </c>
       <c r="C418" t="n">
-        <v>6.722928918623569e-24</v>
+        <v>6.618556381518153e-24</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>4.137448837427269</v>
       </c>
       <c r="C419" t="n">
-        <v>6.602501496822226e-24</v>
+        <v>6.476727289875462e-24</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>4.138366044910134</v>
       </c>
       <c r="C420" t="n">
-        <v>6.493960063058308e-24</v>
+        <v>6.34780529617712e-24</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.139283252392999</v>
       </c>
       <c r="C421" t="n">
-        <v>6.395759794190832e-24</v>
+        <v>6.2306366486212e-24</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.140200459875864</v>
       </c>
       <c r="C422" t="n">
-        <v>6.306355867078811e-24</v>
+        <v>6.124067595405774e-24</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.141117667358729</v>
       </c>
       <c r="C423" t="n">
-        <v>6.224239199376743e-24</v>
+        <v>6.026966493742355e-24</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.142034874841594</v>
       </c>
       <c r="C424" t="n">
-        <v>6.148570683187839e-24</v>
+        <v>5.938616142487937e-24</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.142952082324459</v>
       </c>
       <c r="C425" t="n">
-        <v>6.079106228673491e-24</v>
+        <v>5.858667414630693e-24</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.143869289807323</v>
       </c>
       <c r="C426" t="n">
-        <v>6.015622429325807e-24</v>
+        <v>5.786783977726759e-24</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.144786497290188</v>
       </c>
       <c r="C427" t="n">
-        <v>5.9578958786369e-24</v>
+        <v>5.722629499332269e-24</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.145703704773053</v>
       </c>
       <c r="C428" t="n">
-        <v>5.905703170098879e-24</v>
+        <v>5.665867647003362e-24</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.146620912255917</v>
       </c>
       <c r="C429" t="n">
-        <v>5.858820897203897e-24</v>
+        <v>5.616162088296215e-24</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.147538119738782</v>
       </c>
       <c r="C430" t="n">
-        <v>5.817025653443974e-24</v>
+        <v>5.57317649076687e-24</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.148455327221647</v>
       </c>
       <c r="C431" t="n">
-        <v>5.780094032311271e-24</v>
+        <v>5.536574521971515e-24</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.149372534704512</v>
       </c>
       <c r="C432" t="n">
-        <v>5.747802627297895e-24</v>
+        <v>5.506019849466284e-24</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.150289742187377</v>
       </c>
       <c r="C433" t="n">
-        <v>5.71992803189596e-24</v>
+        <v>5.481176140807316e-24</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.151206949670242</v>
       </c>
       <c r="C434" t="n">
-        <v>5.696246839597573e-24</v>
+        <v>5.461707063550744e-24</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.152124157153107</v>
       </c>
       <c r="C435" t="n">
-        <v>5.676535643894848e-24</v>
+        <v>5.447276285252704e-24</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.153041364635972</v>
       </c>
       <c r="C436" t="n">
-        <v>5.660571038279895e-24</v>
+        <v>5.437547473469332e-24</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.153958572118837</v>
       </c>
       <c r="C437" t="n">
-        <v>5.648129616244822e-24</v>
+        <v>5.432184295756767e-24</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.154875779601702</v>
       </c>
       <c r="C438" t="n">
-        <v>5.638987971281742e-24</v>
+        <v>5.43085041967114e-24</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.155792987084567</v>
       </c>
       <c r="C439" t="n">
-        <v>5.632922696882763e-24</v>
+        <v>5.433209512768588e-24</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.156710194567432</v>
       </c>
       <c r="C440" t="n">
-        <v>5.629710386539998e-24</v>
+        <v>5.438925242605251e-24</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.157627402050297</v>
       </c>
       <c r="C441" t="n">
-        <v>5.629127633745557e-24</v>
+        <v>5.44766127673726e-24</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.158544609533162</v>
       </c>
       <c r="C442" t="n">
-        <v>5.630951031991552e-24</v>
+        <v>5.459081282720756e-24</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.159461817016027</v>
       </c>
       <c r="C443" t="n">
-        <v>5.634957174770091e-24</v>
+        <v>5.472848928111868e-24</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.160379024498892</v>
       </c>
       <c r="C444" t="n">
-        <v>5.640922655573285e-24</v>
+        <v>5.488627880466739e-24</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.161296231981757</v>
       </c>
       <c r="C445" t="n">
-        <v>5.648624067893246e-24</v>
+        <v>5.5060818073415e-24</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.162213439464622</v>
       </c>
       <c r="C446" t="n">
-        <v>5.657838005222083e-24</v>
+        <v>5.524874376292288e-24</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.163130646947486</v>
       </c>
       <c r="C447" t="n">
-        <v>5.668341061051907e-24</v>
+        <v>5.544669254875238e-24</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.164047854430351</v>
       </c>
       <c r="C448" t="n">
-        <v>5.67990982887483e-24</v>
+        <v>5.56513011064649e-24</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.164965061913216</v>
       </c>
       <c r="C449" t="n">
-        <v>5.692320902182959e-24</v>
+        <v>5.585920611162176e-24</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.165882269396081</v>
       </c>
       <c r="C450" t="n">
-        <v>5.705350874468411e-24</v>
+        <v>5.606704423978435e-24</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.166799476878946</v>
       </c>
       <c r="C451" t="n">
-        <v>5.718794216610832e-24</v>
+        <v>5.6271688613558e-24</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.167716684361811</v>
       </c>
       <c r="C452" t="n">
-        <v>5.732704009474256e-24</v>
+        <v>5.647343274156441e-24</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.168633891844676</v>
       </c>
       <c r="C453" t="n">
-        <v>5.747327962026575e-24</v>
+        <v>5.667514429152605e-24</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.169551099327541</v>
       </c>
       <c r="C454" t="n">
-        <v>5.762918539303322e-24</v>
+        <v>5.687975383510656e-24</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.170468306810406</v>
       </c>
       <c r="C455" t="n">
-        <v>5.779728206340028e-24</v>
+        <v>5.709019194396955e-24</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.171385514293271</v>
       </c>
       <c r="C456" t="n">
-        <v>5.798009428172221e-24</v>
+        <v>5.730938918977858e-24</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.172302721776136</v>
       </c>
       <c r="C457" t="n">
-        <v>5.818014669835432e-24</v>
+        <v>5.754027614419728e-24</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.173219929259001</v>
       </c>
       <c r="C458" t="n">
-        <v>5.839996396365188e-24</v>
+        <v>5.778578337888923e-24</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.174137136741866</v>
       </c>
       <c r="C459" t="n">
-        <v>5.864207072797022e-24</v>
+        <v>5.804884146551805e-24</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.175054344224731</v>
       </c>
       <c r="C460" t="n">
-        <v>5.890899164166461e-24</v>
+        <v>5.833238097574733e-24</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.175971551707596</v>
       </c>
       <c r="C461" t="n">
-        <v>5.920325135509036e-24</v>
+        <v>5.863933248124066e-24</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.176888759190461</v>
       </c>
       <c r="C462" t="n">
-        <v>5.952737451860276e-24</v>
+        <v>5.897262655366163e-24</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.177805966673326</v>
       </c>
       <c r="C463" t="n">
-        <v>5.988388578255714e-24</v>
+        <v>5.933519376467389e-24</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.178723174156191</v>
       </c>
       <c r="C464" t="n">
-        <v>6.027530979730874e-24</v>
+        <v>5.972996468594099e-24</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.179640381639055</v>
       </c>
       <c r="C465" t="n">
-        <v>6.070417121321291e-24</v>
+        <v>6.015986988912655e-24</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.18055758912192</v>
       </c>
       <c r="C466" t="n">
-        <v>6.117299468062445e-24</v>
+        <v>6.06278399458937e-24</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.181474796604784</v>
       </c>
       <c r="C467" t="n">
-        <v>6.168430484989954e-24</v>
+        <v>6.113680542790694e-24</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.182392004087649</v>
       </c>
       <c r="C468" t="n">
-        <v>6.22406263713931e-24</v>
+        <v>6.168969690682943e-24</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.183309211570514</v>
       </c>
       <c r="C469" t="n">
-        <v>6.284448389546038e-24</v>
+        <v>6.228944495432478e-24</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.184226419053379</v>
       </c>
       <c r="C470" t="n">
-        <v>6.349840207245669e-24</v>
+        <v>6.293898014205657e-24</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.185143626536244</v>
       </c>
       <c r="C471" t="n">
-        <v>6.420490555273731e-24</v>
+        <v>6.364123304168841e-24</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.186060834019109</v>
       </c>
       <c r="C472" t="n">
-        <v>6.496651898665759e-24</v>
+        <v>6.439913422488394e-24</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.186978041501974</v>
       </c>
       <c r="C473" t="n">
-        <v>6.578576702457279e-24</v>
+        <v>6.521561426330671e-24</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.187895248984839</v>
       </c>
       <c r="C474" t="n">
-        <v>6.666517431683817e-24</v>
+        <v>6.609360372862031e-24</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.188812456467704</v>
       </c>
       <c r="C475" t="n">
-        <v>6.760726551380911e-24</v>
+        <v>6.703603319248838e-24</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.189729663950569</v>
       </c>
       <c r="C476" t="n">
-        <v>6.861456526584086e-24</v>
+        <v>6.804583322657451e-24</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.190646871433434</v>
       </c>
       <c r="C477" t="n">
-        <v>6.968959822328871e-24</v>
+        <v>6.912593440254228e-24</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.191564078916299</v>
       </c>
       <c r="C478" t="n">
-        <v>7.083488903650797e-24</v>
+        <v>7.02792672920553e-24</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.192481286399164</v>
       </c>
       <c r="C479" t="n">
-        <v>7.205296235585393e-24</v>
+        <v>7.150876246677718e-24</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.193398493882029</v>
       </c>
       <c r="C480" t="n">
-        <v>7.33463428316819e-24</v>
+        <v>7.281735049837149e-24</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.194315701364894</v>
       </c>
       <c r="C481" t="n">
-        <v>7.471755511434718e-24</v>
+        <v>7.420796195850189e-24</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.195232908847759</v>
       </c>
       <c r="C482" t="n">
-        <v>7.616912385420505e-24</v>
+        <v>7.568352741883192e-24</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.196150116330624</v>
       </c>
       <c r="C483" t="n">
-        <v>7.770357370161083e-24</v>
+        <v>7.724697745102522e-24</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.197067323813489</v>
       </c>
       <c r="C484" t="n">
-        <v>7.932342930691978e-24</v>
+        <v>7.890124262674534e-24</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.197984531296354</v>
       </c>
       <c r="C485" t="n">
-        <v>8.103121532048721e-24</v>
+        <v>8.064925351765592e-24</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.198901738779218</v>
       </c>
       <c r="C486" t="n">
-        <v>8.282945639266846e-24</v>
+        <v>8.249394069542057e-24</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.199818946262083</v>
       </c>
       <c r="C487" t="n">
-        <v>8.472067717381877e-24</v>
+        <v>8.443823473170287e-24</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.200736153744948</v>
       </c>
       <c r="C488" t="n">
-        <v>8.670735691213977e-24</v>
+        <v>8.648501180412418e-24</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.201653361227813</v>
       </c>
       <c r="C489" t="n">
-        <v>8.878914897833849e-24</v>
+        <v>8.86337625482727e-24</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.202570568710678</v>
       </c>
       <c r="C490" t="n">
-        <v>9.096126710387549e-24</v>
+        <v>9.087865869072155e-24</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.203487776193543</v>
       </c>
       <c r="C491" t="n">
-        <v>9.321853607242192e-24</v>
+        <v>9.321340597921339e-24</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.204404983676408</v>
       </c>
       <c r="C492" t="n">
-        <v>9.555578066764885e-24</v>
+        <v>9.563171016149088e-24</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.205322191159273</v>
       </c>
       <c r="C493" t="n">
-        <v>9.79678256732274e-24</v>
+        <v>9.812727698529668e-24</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.206239398642138</v>
       </c>
       <c r="C494" t="n">
-        <v>1.004494958728287e-23</v>
+        <v>1.006938121983735e-23</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.207156606125003</v>
       </c>
       <c r="C495" t="n">
-        <v>1.029956160501238e-23</v>
+        <v>1.033250215484638e-23</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.208073813607868</v>
       </c>
       <c r="C496" t="n">
-        <v>1.056010109887838e-23</v>
+        <v>1.060146107833105e-23</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.208991021090733</v>
       </c>
       <c r="C497" t="n">
-        <v>1.082605054724799e-23</v>
+        <v>1.087562856506561e-23</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.209908228573598</v>
       </c>
       <c r="C498" t="n">
-        <v>1.109689242848831e-23</v>
+        <v>1.115437518982434e-23</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.210825436056463</v>
       </c>
       <c r="C499" t="n">
-        <v>1.137210922096646e-23</v>
+        <v>1.143707152738149e-23</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.211742643539328</v>
       </c>
       <c r="C500" t="n">
-        <v>1.165118340304954e-23</v>
+        <v>1.172308815251133e-23</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.212659851022193</v>
       </c>
       <c r="C501" t="n">
-        <v>1.193359745310467e-23</v>
+        <v>1.201179563998814e-23</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.213577058505058</v>
       </c>
       <c r="C502" t="n">
-        <v>1.221883384949896e-23</v>
+        <v>1.230256456458616e-23</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.214494265987922</v>
       </c>
       <c r="C503" t="n">
-        <v>1.250637507059924e-23</v>
+        <v>1.25947655010794e-23</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.215411473470787</v>
       </c>
       <c r="C504" t="n">
-        <v>1.279570359477318e-23</v>
+        <v>1.288776902424267e-23</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.216328680953652</v>
       </c>
       <c r="C505" t="n">
-        <v>1.30863019003876e-23</v>
+        <v>1.318094570884997e-23</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.217245888436516</v>
       </c>
       <c r="C506" t="n">
-        <v>1.337765246580963e-23</v>
+        <v>1.347366612967556e-23</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.218163095919381</v>
       </c>
       <c r="C507" t="n">
-        <v>1.366926448967067e-23</v>
+        <v>1.376533190255253e-23</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.219080303402246</v>
       </c>
       <c r="C508" t="n">
-        <v>1.396141585916579e-23</v>
+        <v>1.405623763249448e-23</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.219997510885111</v>
       </c>
       <c r="C509" t="n">
-        <v>1.425524998429149e-23</v>
+        <v>1.434768340649267e-23</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.220914718367976</v>
       </c>
       <c r="C510" t="n">
-        <v>1.455195644766105e-23</v>
+        <v>1.464102295048804e-23</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.221831925850841</v>
       </c>
       <c r="C511" t="n">
-        <v>1.485272483188769e-23</v>
+        <v>1.493760999042152e-23</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.222749133333706</v>
       </c>
       <c r="C512" t="n">
-        <v>1.515874471958469e-23</v>
+        <v>1.523879825223407e-23</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.223666340816571</v>
       </c>
       <c r="C513" t="n">
-        <v>1.547120569336528e-23</v>
+        <v>1.554594146186661e-23</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.224583548299436</v>
       </c>
       <c r="C514" t="n">
-        <v>1.579129733584274e-23</v>
+        <v>1.586039334526008e-23</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.225500755782301</v>
       </c>
       <c r="C515" t="n">
-        <v>1.612020922963029e-23</v>
+        <v>1.618350762835542e-23</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.226417963265166</v>
       </c>
       <c r="C516" t="n">
-        <v>1.64591309573412e-23</v>
+        <v>1.651663803709355e-23</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.227335170748031</v>
       </c>
       <c r="C517" t="n">
-        <v>1.680925210158872e-23</v>
+        <v>1.686113829741544e-23</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.228252378230896</v>
       </c>
       <c r="C518" t="n">
-        <v>1.717176224498611e-23</v>
+        <v>1.721836213526199e-23</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.229169585713761</v>
       </c>
       <c r="C519" t="n">
-        <v>1.75478509701466e-23</v>
+        <v>1.758966327657417e-23</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.230086793196626</v>
       </c>
       <c r="C520" t="n">
-        <v>1.793870785968347e-23</v>
+        <v>1.79763954472929e-23</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.231004000679491</v>
       </c>
       <c r="C521" t="n">
-        <v>1.834552249620994e-23</v>
+        <v>1.837991237335911e-23</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.231921208162356</v>
       </c>
       <c r="C522" t="n">
-        <v>1.876941541608437e-23</v>
+        <v>1.880149579967135e-23</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.232838415645221</v>
       </c>
       <c r="C523" t="n">
-        <v>1.92089984205968e-23</v>
+        <v>1.923981210313247e-23</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.233755623128086</v>
       </c>
       <c r="C524" t="n">
-        <v>1.965972238555065e-23</v>
+        <v>1.969023238110031e-23</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.23467283061095</v>
       </c>
       <c r="C525" t="n">
-        <v>2.011683651499454e-23</v>
+        <v>2.014791748718881e-23</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.235590038093815</v>
       </c>
       <c r="C526" t="n">
-        <v>2.057559001297709e-23</v>
+        <v>2.060802827501195e-23</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.23650724557668</v>
       </c>
       <c r="C527" t="n">
-        <v>2.103123208354691e-23</v>
+        <v>2.106572559818366e-23</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.237424453059545</v>
       </c>
       <c r="C528" t="n">
-        <v>2.147901193075264e-23</v>
+        <v>2.151617031031793e-23</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.23834166054241</v>
       </c>
       <c r="C529" t="n">
-        <v>2.191417875864288e-23</v>
+        <v>2.19545232650287e-23</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.239258868025275</v>
       </c>
       <c r="C530" t="n">
-        <v>2.233198177126626e-23</v>
+        <v>2.237594531592993e-23</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.24017607550814</v>
       </c>
       <c r="C531" t="n">
-        <v>2.272767017267139e-23</v>
+        <v>2.277559731663557e-23</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.241093282991005</v>
       </c>
       <c r="C532" t="n">
-        <v>2.30965673741458e-23</v>
+        <v>2.314871593664425e-23</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.24201049047387</v>
       </c>
       <c r="C533" t="n">
-        <v>2.343665442274977e-23</v>
+        <v>2.34932530927833e-23</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.242927697956735</v>
       </c>
       <c r="C534" t="n">
-        <v>2.374923877089448e-23</v>
+        <v>2.38105592162046e-23</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.2438449054396</v>
       </c>
       <c r="C535" t="n">
-        <v>2.40358379480764e-23</v>
+        <v>2.410219936914323e-23</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.244762112922465</v>
       </c>
       <c r="C536" t="n">
-        <v>2.429796948379197e-23</v>
+        <v>2.436973861383431e-23</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.24567932040533</v>
       </c>
       <c r="C537" t="n">
-        <v>2.453715090753769e-23</v>
+        <v>2.461474201251293e-23</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.246596527888195</v>
       </c>
       <c r="C538" t="n">
-        <v>2.475489974881001e-23</v>
+        <v>2.483877462741418e-23</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.24751373537106</v>
       </c>
       <c r="C539" t="n">
-        <v>2.49527335371054e-23</v>
+        <v>2.504340152077318e-23</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.248430942853924</v>
       </c>
       <c r="C540" t="n">
-        <v>2.513216980192017e-23</v>
+        <v>2.523018775482483e-23</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.249348150336789</v>
       </c>
       <c r="C541" t="n">
-        <v>2.529472607275112e-23</v>
+        <v>2.54006983918046e-23</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.250265357819654</v>
       </c>
       <c r="C542" t="n">
-        <v>2.544191987909454e-23</v>
+        <v>2.555649849394738e-23</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.251182565302519</v>
       </c>
       <c r="C543" t="n">
-        <v>2.557526875044692e-23</v>
+        <v>2.569915312348828e-23</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.252099772785384</v>
       </c>
       <c r="C544" t="n">
-        <v>2.56962902163047e-23</v>
+        <v>2.583022734266241e-23</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.253016980268248</v>
       </c>
       <c r="C545" t="n">
-        <v>2.580595694597931e-23</v>
+        <v>2.595066645093284e-23</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.253934187751113</v>
       </c>
       <c r="C546" t="n">
-        <v>2.590223950686745e-23</v>
+        <v>2.605800094327593e-23</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.254851395233978</v>
       </c>
       <c r="C547" t="n">
-        <v>2.598208006362535e-23</v>
+        <v>2.614859153616222e-23</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.255768602716843</v>
       </c>
       <c r="C548" t="n">
-        <v>2.604241987094747e-23</v>
+        <v>2.621879791100684e-23</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.256685810199708</v>
       </c>
       <c r="C549" t="n">
-        <v>2.608020018352823e-23</v>
+        <v>2.626497974922495e-23</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.257603017682573</v>
       </c>
       <c r="C550" t="n">
-        <v>2.609236225606209e-23</v>
+        <v>2.628349673223173e-23</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.258520225165438</v>
       </c>
       <c r="C551" t="n">
-        <v>2.607584734324347e-23</v>
+        <v>2.627070854144233e-23</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.259437432648303</v>
       </c>
       <c r="C552" t="n">
-        <v>2.602759669976684e-23</v>
+        <v>2.622297485827192e-23</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.260354640131168</v>
       </c>
       <c r="C553" t="n">
-        <v>2.594455158032662e-23</v>
+        <v>2.613665536413565e-23</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.261271847614033</v>
       </c>
       <c r="C554" t="n">
-        <v>2.582365323961726e-23</v>
+        <v>2.600810974044868e-23</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.262189055096898</v>
       </c>
       <c r="C555" t="n">
-        <v>2.566184294738842e-23</v>
+        <v>2.58336977799888e-23</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.263106262579763</v>
       </c>
       <c r="C556" t="n">
-        <v>2.545616517693267e-23</v>
+        <v>2.561054266631299e-23</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.264023470062628</v>
       </c>
       <c r="C557" t="n">
-        <v>2.520401402894988e-23</v>
+        <v>2.533835375716715e-23</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.264940677545493</v>
       </c>
       <c r="C558" t="n">
-        <v>2.490285757044282e-23</v>
+        <v>2.501738753486298e-23</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.265857885028358</v>
       </c>
       <c r="C559" t="n">
-        <v>2.455016386841422e-23</v>
+        <v>2.464790048171211e-23</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.266775092511223</v>
       </c>
       <c r="C560" t="n">
-        <v>2.414340098986684e-23</v>
+        <v>2.423014908002622e-23</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.267692299994088</v>
       </c>
       <c r="C561" t="n">
-        <v>2.368033034648033e-23</v>
+        <v>2.376459377524036e-23</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.268609507476953</v>
       </c>
       <c r="C562" t="n">
-        <v>2.316737677214606e-23</v>
+        <v>2.325771870707397e-23</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.269526714959818</v>
       </c>
       <c r="C563" t="n">
-        <v>2.262084951464959e-23</v>
+        <v>2.272288066741833e-23</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.270443922442682</v>
       </c>
       <c r="C564" t="n">
-        <v>2.205759669634197e-23</v>
+        <v>2.217381112869636e-23</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.271361129925547</v>
       </c>
       <c r="C565" t="n">
-        <v>2.149446643957428e-23</v>
+        <v>2.162424156333102e-23</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.272278337408412</v>
       </c>
       <c r="C566" t="n">
-        <v>2.094612977460058e-23</v>
+        <v>2.108611290339664e-23</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.273195544891277</v>
       </c>
       <c r="C567" t="n">
-        <v>2.041439490828111e-23</v>
+        <v>2.056078710531692e-23</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.274112752374142</v>
       </c>
       <c r="C568" t="n">
-        <v>1.989636293781143e-23</v>
+        <v>2.004575478273151e-23</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.275029959857007</v>
       </c>
       <c r="C569" t="n">
-        <v>1.93891279275583e-23</v>
+        <v>1.953850076515928e-23</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.275947167339872</v>
       </c>
       <c r="C570" t="n">
-        <v>1.888978394188849e-23</v>
+        <v>1.903650988211909e-23</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.276864374822737</v>
       </c>
       <c r="C571" t="n">
-        <v>1.839542504516877e-23</v>
+        <v>1.853726696312979e-23</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.277781582305602</v>
       </c>
       <c r="C572" t="n">
-        <v>1.790314530176592e-23</v>
+        <v>1.803825683771026e-23</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.278698789788467</v>
       </c>
       <c r="C573" t="n">
-        <v>1.741003877604669e-23</v>
+        <v>1.753696433537933e-23</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.279615997271332</v>
       </c>
       <c r="C574" t="n">
-        <v>1.691319953237785e-23</v>
+        <v>1.703087428565589e-23</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.280533204754196</v>
       </c>
       <c r="C575" t="n">
-        <v>1.640972163512668e-23</v>
+        <v>1.651747151805928e-23</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.281450412237062</v>
       </c>
       <c r="C576" t="n">
-        <v>1.589669914865845e-23</v>
+        <v>1.599424086210686e-23</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.282367619719926</v>
       </c>
       <c r="C577" t="n">
-        <v>1.537176068645284e-23</v>
+        <v>1.545918361959704e-23</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.283284827202792</v>
       </c>
       <c r="C578" t="n">
-        <v>1.483714842918497e-23</v>
+        <v>1.491475864264164e-23</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.284202034685656</v>
       </c>
       <c r="C579" t="n">
-        <v>1.429746362748445e-23</v>
+        <v>1.436570407669988e-23</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.285119242168521</v>
       </c>
       <c r="C580" t="n">
-        <v>1.375732654350624e-23</v>
+        <v>1.381677643584388e-23</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.286036449651386</v>
       </c>
       <c r="C581" t="n">
-        <v>1.322135743940741e-23</v>
+        <v>1.32727322341479e-23</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.286953657134251</v>
       </c>
       <c r="C582" t="n">
-        <v>1.269417657734449e-23</v>
+        <v>1.273832798568565e-23</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.287870864617116</v>
       </c>
       <c r="C583" t="n">
-        <v>1.218040421947401e-23</v>
+        <v>1.221832020453088e-23</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.28878807209998</v>
       </c>
       <c r="C584" t="n">
-        <v>1.16846606279525e-23</v>
+        <v>1.17174654047573e-23</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.289705279582845</v>
       </c>
       <c r="C585" t="n">
-        <v>1.121156606493652e-23</v>
+        <v>1.124052010043863e-23</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.29062248706571</v>
       </c>
       <c r="C586" t="n">
-        <v>1.076566174937857e-23</v>
+        <v>1.079215771963193e-23</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.291539694548575</v>
       </c>
       <c r="C587" t="n">
-        <v>1.034857492751849e-23</v>
+        <v>1.037398867709125e-23</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.29245690203144</v>
       </c>
       <c r="C588" t="n">
-        <v>9.95823689814093e-24</v>
+        <v>9.983738403962841e-24</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.293374109514305</v>
       </c>
       <c r="C589" t="n">
-        <v>9.592340746149595e-24</v>
+        <v>9.618881933617051e-24</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.29429131699717</v>
       </c>
       <c r="C590" t="n">
-        <v>9.24857955644821e-24</v>
+        <v>9.276894299424254e-24</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.295208524480035</v>
       </c>
       <c r="C591" t="n">
-        <v>8.924646413940492e-24</v>
+        <v>8.955250534754814e-24</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.2961257319629</v>
       </c>
       <c r="C592" t="n">
-        <v>8.61823440353016e-24</v>
+        <v>8.651425672979092e-24</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.297042939445765</v>
       </c>
       <c r="C593" t="n">
-        <v>8.327036610120932e-24</v>
+        <v>8.362894747467458e-24</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.29796014692863</v>
       </c>
       <c r="C594" t="n">
-        <v>8.048746118616522e-24</v>
+        <v>8.087132791590265e-24</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.298877354411495</v>
       </c>
       <c r="C595" t="n">
-        <v>7.781056013920654e-24</v>
+        <v>7.821614838717892e-24</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.29979456189436</v>
       </c>
       <c r="C596" t="n">
-        <v>7.521659380937041e-24</v>
+        <v>7.56381592222069e-24</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.300711769377225</v>
       </c>
       <c r="C597" t="n">
-        <v>7.268249304569406e-24</v>
+        <v>7.311211075469031e-24</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.30162897686009</v>
       </c>
       <c r="C598" t="n">
-        <v>7.018518869721465e-24</v>
+        <v>7.061275331833275e-24</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.302546184342955</v>
       </c>
       <c r="C599" t="n">
-        <v>6.770161161296937e-24</v>
+        <v>6.81148372468379e-24</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.30346339182582</v>
       </c>
       <c r="C600" t="n">
-        <v>6.520871532610928e-24</v>
+        <v>6.559313774602494e-24</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.304380599308685</v>
       </c>
       <c r="C601" t="n">
-        <v>6.270471273983753e-24</v>
+        <v>6.304573996941949e-24</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.305297806791549</v>
       </c>
       <c r="C602" t="n">
-        <v>6.024852144229284e-24</v>
+        <v>6.053728904047641e-24</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.306215014274414</v>
       </c>
       <c r="C603" t="n">
-        <v>5.790982381322214e-24</v>
+        <v>5.814423319482391e-24</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.307132221757279</v>
       </c>
       <c r="C604" t="n">
-        <v>5.575830223237236e-24</v>
+        <v>5.594302066809015e-24</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.308049429240144</v>
       </c>
       <c r="C605" t="n">
-        <v>5.386363907949044e-24</v>
+        <v>5.401009969590334e-24</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.308966636723009</v>
       </c>
       <c r="C606" t="n">
-        <v>5.229551673432335e-24</v>
+        <v>5.242191851389167e-24</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.309883844205874</v>
       </c>
       <c r="C607" t="n">
-        <v>5.112361757661802e-24</v>
+        <v>5.125492535768333e-24</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.310801051688739</v>
       </c>
       <c r="C608" t="n">
-        <v>5.036178735961032e-24</v>
+        <v>5.052477650756843e-24</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.311718259171604</v>
       </c>
       <c r="C609" t="n">
-        <v>4.973899360829546e-24</v>
+        <v>4.993696794923966e-24</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.312635466654469</v>
       </c>
       <c r="C610" t="n">
-        <v>4.895979722875427e-24</v>
+        <v>4.917015982206411e-24</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.313552674137334</v>
       </c>
       <c r="C611" t="n">
-        <v>4.80300157617142e-24</v>
+        <v>4.822980676033445e-24</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.314469881620198</v>
       </c>
       <c r="C612" t="n">
-        <v>4.704112143274118e-24</v>
+        <v>4.72142791690463e-24</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.315387089103064</v>
       </c>
       <c r="C613" t="n">
-        <v>4.608459244282377e-24</v>
+        <v>4.62219539351643e-24</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.316304296585928</v>
       </c>
       <c r="C614" t="n">
-        <v>4.525190699295693e-24</v>
+        <v>4.535120794565974e-24</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.317221504068794</v>
       </c>
       <c r="C615" t="n">
-        <v>4.463454328412898e-24</v>
+        <v>4.470041808749697e-24</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.318138711551658</v>
       </c>
       <c r="C616" t="n">
-        <v>4.432397951733358e-24</v>
+        <v>4.436796124764596e-24</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.319055919034523</v>
       </c>
       <c r="C617" t="n">
-        <v>4.440797844809455e-24</v>
+        <v>4.444820572992077e-24</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.319973126517388</v>
       </c>
       <c r="C618" t="n">
-        <v>4.488131338607007e-24</v>
+        <v>4.493519379933131e-24</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.320890334000253</v>
       </c>
       <c r="C619" t="n">
-        <v>4.564137933342164e-24</v>
+        <v>4.571790655221782e-24</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.321807541483118</v>
       </c>
       <c r="C620" t="n">
-        <v>4.658097748925069e-24</v>
+        <v>4.668036884435183e-24</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.322724748965983</v>
       </c>
       <c r="C621" t="n">
-        <v>4.759290905265859e-24</v>
+        <v>4.770660553150478e-24</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.323641956448848</v>
       </c>
       <c r="C622" t="n">
-        <v>4.857681883734308e-24</v>
+        <v>4.868876440423991e-24</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.324559163931712</v>
       </c>
       <c r="C623" t="n">
-        <v>4.948124266206256e-24</v>
+        <v>4.957702376322874e-24</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.325476371414577</v>
       </c>
       <c r="C624" t="n">
-        <v>5.027598607268588e-24</v>
+        <v>5.03468077209759e-24</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.326393578897442</v>
       </c>
       <c r="C625" t="n">
-        <v>5.093094190302047e-24</v>
+        <v>5.097364399521134e-24</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.327310786380307</v>
       </c>
       <c r="C626" t="n">
-        <v>5.141600298687382e-24</v>
+        <v>5.143306030366511e-24</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.328227993863172</v>
       </c>
       <c r="C627" t="n">
-        <v>5.170121195792968e-24</v>
+        <v>5.170069918881638e-24</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.329145201346037</v>
       </c>
       <c r="C628" t="n">
-        <v>5.176839322375019e-24</v>
+        <v>5.176123417009496e-24</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.330062408828902</v>
       </c>
       <c r="C629" t="n">
-        <v>5.161945129789967e-24</v>
+        <v>5.161473058961762e-24</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.330979616311767</v>
       </c>
       <c r="C630" t="n">
-        <v>5.12582495378074e-24</v>
+        <v>5.126275528443528e-24</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.331896823794632</v>
       </c>
       <c r="C631" t="n">
-        <v>5.068865130090272e-24</v>
+        <v>5.070687509159891e-24</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.332814031277497</v>
       </c>
       <c r="C632" t="n">
-        <v>4.991451994461488e-24</v>
+        <v>4.994865684815944e-24</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.333731238760362</v>
       </c>
       <c r="C633" t="n">
-        <v>4.894047951129125e-24</v>
+        <v>4.899050939254327e-24</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.334648446243227</v>
       </c>
       <c r="C634" t="n">
-        <v>4.7782604724276e-24</v>
+        <v>4.784751631052563e-24</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.335565653726092</v>
       </c>
       <c r="C635" t="n">
-        <v>4.646582027150093e-24</v>
+        <v>4.654455720483706e-24</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.336482861208957</v>
       </c>
       <c r="C636" t="n">
-        <v>4.501528053568573e-24</v>
+        <v>4.510676592713931e-24</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.337400068691822</v>
       </c>
       <c r="C637" t="n">
-        <v>4.345613989955007e-24</v>
+        <v>4.355927632909405e-24</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.338317276174687</v>
       </c>
       <c r="C638" t="n">
-        <v>4.181355274581369e-24</v>
+        <v>4.1927222262363e-24</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.339234483657552</v>
       </c>
       <c r="C639" t="n">
-        <v>4.011267345719632e-24</v>
+        <v>4.023573757860791e-24</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.340151691140417</v>
       </c>
       <c r="C640" t="n">
-        <v>3.837865641641766e-24</v>
+        <v>3.850995612949047e-24</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.341068898623281</v>
       </c>
       <c r="C641" t="n">
-        <v>3.663665600619738e-24</v>
+        <v>3.677501176667239e-24</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.341986106106146</v>
       </c>
       <c r="C642" t="n">
-        <v>3.49117650509355e-24</v>
+        <v>3.505597698700454e-24</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.342903313589011</v>
       </c>
       <c r="C643" t="n">
-        <v>3.322198774876782e-24</v>
+        <v>3.33708590957366e-24</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.343820521071876</v>
       </c>
       <c r="C644" t="n">
-        <v>3.157175059556873e-24</v>
+        <v>3.172413258309783e-24</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.344737728554741</v>
       </c>
       <c r="C645" t="n">
-        <v>2.996394621675296e-24</v>
+        <v>3.011874313976095e-24</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.345654936037606</v>
       </c>
       <c r="C646" t="n">
-        <v>2.84014672377352e-24</v>
+        <v>2.855763645639876e-24</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.346572143520471</v>
       </c>
       <c r="C647" t="n">
-        <v>2.688720628393019e-24</v>
+        <v>2.704375822368397e-24</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.347489351003336</v>
       </c>
       <c r="C648" t="n">
-        <v>2.542405598075263e-24</v>
+        <v>2.558005413228936e-24</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.3484065584862</v>
       </c>
       <c r="C649" t="n">
-        <v>2.401490895361857e-24</v>
+        <v>2.416946987288898e-24</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.349323765969066</v>
       </c>
       <c r="C650" t="n">
-        <v>2.266265782793872e-24</v>
+        <v>2.281495113615159e-24</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.35024097345193</v>
       </c>
       <c r="C651" t="n">
-        <v>2.137019522913303e-24</v>
+        <v>2.151944361275516e-24</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.351158180934796</v>
       </c>
       <c r="C652" t="n">
-        <v>2.01404137826112e-24</v>
+        <v>2.028589299336743e-24</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.35207538841766</v>
       </c>
       <c r="C653" t="n">
-        <v>1.897620611379272e-24</v>
+        <v>1.911724496866593e-24</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.352992595900525</v>
       </c>
       <c r="C654" t="n">
-        <v>1.788046484808881e-24</v>
+        <v>1.801644522931991e-24</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.35390980338339</v>
       </c>
       <c r="C655" t="n">
-        <v>1.685608261091536e-24</v>
+        <v>1.698643946600327e-24</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.354827010866255</v>
       </c>
       <c r="C656" t="n">
-        <v>1.590594845778407e-24</v>
+        <v>1.603016982556874e-24</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.35574421834912</v>
       </c>
       <c r="C657" t="n">
-        <v>1.503125358097936e-24</v>
+        <v>1.514889299682202e-24</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.356661425831985</v>
       </c>
       <c r="C658" t="n">
-        <v>1.422877987242741e-24</v>
+        <v>1.433948858409536e-24</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.35757863331485</v>
       </c>
       <c r="C659" t="n">
-        <v>1.349460270718469e-24</v>
+        <v>1.359813483690971e-24</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.358495840797715</v>
       </c>
       <c r="C660" t="n">
-        <v>1.282479746030766e-24</v>
+        <v>1.2921010004786e-24</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.35941304828058</v>
       </c>
       <c r="C661" t="n">
-        <v>1.221543950685278e-24</v>
+        <v>1.230429233724517e-24</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.360330255763444</v>
       </c>
       <c r="C662" t="n">
-        <v>1.166260422187651e-24</v>
+        <v>1.174416008380816e-24</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.361247463246309</v>
       </c>
       <c r="C663" t="n">
-        <v>1.116236698043533e-24</v>
+        <v>1.123679149399592e-24</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.362164670729174</v>
       </c>
       <c r="C664" t="n">
-        <v>1.071080315758567e-24</v>
+        <v>1.077836481732939e-24</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.363081878212039</v>
       </c>
       <c r="C665" t="n">
-        <v>1.030398812838402e-24</v>
+        <v>1.036505830332949e-24</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.363999085694904</v>
       </c>
       <c r="C666" t="n">
-        <v>9.937997267886824e-25</v>
+        <v>9.993050201517181e-25</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.364916293177769</v>
       </c>
       <c r="C667" t="n">
-        <v>9.608905951150552e-25</v>
+        <v>9.658518761413396e-25</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.365833500660634</v>
       </c>
       <c r="C668" t="n">
-        <v>9.312789553231667e-25</v>
+        <v>9.357642232539075e-25</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.366750708143499</v>
       </c>
       <c r="C669" t="n">
-        <v>9.045723449186628e-25</v>
+        <v>9.086598864415159e-25</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.367667915626364</v>
       </c>
       <c r="C670" t="n">
-        <v>8.80402065006734e-25</v>
+        <v>8.841759633620519e-25</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.368585123109229</v>
       </c>
       <c r="C671" t="n">
-        <v>8.585835455063939e-25</v>
+        <v>8.620988834465758e-25</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.369502330592094</v>
       </c>
       <c r="C672" t="n">
-        <v>8.390181913533326e-25</v>
+        <v>8.422848034079467e-25</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.370419538074959</v>
       </c>
       <c r="C673" t="n">
-        <v>8.216078926464218e-25</v>
+        <v>8.245902734350722e-25</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.371336745557824</v>
       </c>
       <c r="C674" t="n">
-        <v>8.062545394845331e-25</v>
+        <v>8.088718437168611e-25</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.372253953040689</v>
       </c>
       <c r="C675" t="n">
-        <v>7.928600219665382e-25</v>
+        <v>7.949860644422218e-25</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.373171160523554</v>
       </c>
       <c r="C676" t="n">
-        <v>7.813262301913088e-25</v>
+        <v>7.82789485800062e-25</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.374088368006419</v>
       </c>
       <c r="C677" t="n">
-        <v>7.715550542577161e-25</v>
+        <v>7.721386579792898e-25</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.375005575489284</v>
       </c>
       <c r="C678" t="n">
-        <v>7.634483842646325e-25</v>
+        <v>7.628901311688139e-25</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.375922782972149</v>
       </c>
       <c r="C679" t="n">
-        <v>7.567136776499339e-25</v>
+        <v>7.547564693954296e-25</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.376839990455013</v>
       </c>
       <c r="C680" t="n">
-        <v>7.500354816220033e-25</v>
+        <v>7.466927254870597e-25</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.377757197937878</v>
       </c>
       <c r="C681" t="n">
-        <v>7.417631414816686e-25</v>
+        <v>7.374057201281456e-25</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.378674405420743</v>
       </c>
       <c r="C682" t="n">
-        <v>7.302458080970964e-25</v>
+        <v>7.25602130016966e-25</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.379591612903608</v>
       </c>
       <c r="C683" t="n">
-        <v>7.138329286561064e-25</v>
+        <v>7.09988902095412e-25</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.380508820386473</v>
       </c>
       <c r="C684" t="n">
-        <v>6.935393195403559e-25</v>
+        <v>6.917038008081287e-25</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.381426027869338</v>
       </c>
       <c r="C685" t="n">
-        <v>6.78638576370342e-25</v>
+        <v>6.793258934707428e-25</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.382343235352202</v>
       </c>
       <c r="C686" t="n">
-        <v>6.691168890345604e-25</v>
+        <v>6.718390428950413e-25</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.383260442835068</v>
       </c>
       <c r="C687" t="n">
-        <v>6.574070739520326e-25</v>
+        <v>6.605939479186295e-25</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.384177650317932</v>
       </c>
       <c r="C688" t="n">
-        <v>6.399161796875114e-25</v>
+        <v>6.416943228492171e-25</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.385094857800798</v>
       </c>
       <c r="C689" t="n">
-        <v>6.197887787147234e-25</v>
+        <v>6.192584513148543e-25</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.386012065283662</v>
       </c>
       <c r="C690" t="n">
-        <v>6.007925782865035e-25</v>
+        <v>5.981458620880156e-25</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.386929272766527</v>
       </c>
       <c r="C691" t="n">
-        <v>5.86475345975305e-25</v>
+        <v>5.829295539854781e-25</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.387846480249392</v>
       </c>
       <c r="C692" t="n">
-        <v>5.767558927283053e-25</v>
+        <v>5.734548442189458e-25</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.388763687732257</v>
       </c>
       <c r="C693" t="n">
-        <v>5.685758113132991e-25</v>
+        <v>5.656884311368214e-25</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.389680895215122</v>
       </c>
       <c r="C694" t="n">
-        <v>5.589988712865574e-25</v>
+        <v>5.557726606182059e-25</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.390598102697987</v>
       </c>
       <c r="C695" t="n">
-        <v>5.474233686196599e-25</v>
+        <v>5.430742781305099e-25</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.391515310180852</v>
       </c>
       <c r="C696" t="n">
-        <v>5.347037106406239e-25</v>
+        <v>5.289711800227281e-25</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.392432517663717</v>
       </c>
       <c r="C697" t="n">
-        <v>5.217160241170985e-25</v>
+        <v>5.148711821055341e-25</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.393349725146582</v>
       </c>
       <c r="C698" t="n">
-        <v>5.090707043301603e-25</v>
+        <v>5.017622162870327e-25</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.394266932629447</v>
       </c>
       <c r="C699" t="n">
-        <v>4.966519987917757e-25</v>
+        <v>4.894848240660502e-25</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.395184140112312</v>
       </c>
       <c r="C700" t="n">
-        <v>4.842212511598365e-25</v>
+        <v>4.776853458305273e-25</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.396101347595176</v>
       </c>
       <c r="C701" t="n">
-        <v>4.715398050922346e-25</v>
+        <v>4.660101219684051e-25</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.397018555078041</v>
       </c>
       <c r="C702" t="n">
-        <v>4.583690042468618e-25</v>
+        <v>4.541054928676236e-25</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.397935762560906</v>
       </c>
       <c r="C703" t="n">
-        <v>4.444701922816098e-25</v>
+        <v>4.416177989161241e-25</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.398852970043771</v>
       </c>
       <c r="C704" t="n">
-        <v>4.296047128543704e-25</v>
+        <v>4.281933805018471e-25</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.399770177526636</v>
       </c>
       <c r="C705" t="n">
-        <v>4.135339096230356e-25</v>
+        <v>4.134785780127335e-25</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.400687385009501</v>
       </c>
       <c r="C706" t="n">
-        <v>3.960191262454969e-25</v>
+        <v>3.971197318367237e-25</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.401604592492366</v>
       </c>
       <c r="C707" t="n">
-        <v>3.770259409561684e-25</v>
+        <v>3.789790521387153e-25</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.402521799975231</v>
       </c>
       <c r="C708" t="n">
-        <v>3.581024140644823e-25</v>
+        <v>3.605913848262397e-25</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.403439007458096</v>
       </c>
       <c r="C709" t="n">
-        <v>3.415355120834438e-25</v>
+        <v>3.442725773398383e-25</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.404356214940961</v>
       </c>
       <c r="C710" t="n">
-        <v>3.29616371226726e-25</v>
+        <v>3.323428843676811e-25</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.405273422423826</v>
       </c>
       <c r="C711" t="n">
-        <v>3.246361277080026e-25</v>
+        <v>3.271225605979388e-25</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.406190629906691</v>
       </c>
       <c r="C712" t="n">
-        <v>3.288854954453269e-25</v>
+        <v>3.309314411323936e-25</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.407107837389556</v>
       </c>
       <c r="C713" t="n">
-        <v>3.438026271361436e-25</v>
+        <v>3.452422694462866e-25</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.408025044872421</v>
       </c>
       <c r="C714" t="n">
-        <v>3.681850621706952e-25</v>
+        <v>3.689041165237909e-25</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.408942252355286</v>
       </c>
       <c r="C715" t="n">
-        <v>4.003206506148181e-25</v>
+        <v>4.002596339290957e-25</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.409859459838151</v>
       </c>
       <c r="C716" t="n">
-        <v>4.384972425343488e-25</v>
+        <v>4.376514732263902e-25</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.410776667321016</v>
       </c>
       <c r="C717" t="n">
-        <v>4.810026879951239e-25</v>
+        <v>4.794222859798635e-25</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.411693874803881</v>
       </c>
       <c r="C718" t="n">
-        <v>5.261248370629801e-25</v>
+        <v>5.23914723753705e-25</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.412611082286745</v>
       </c>
       <c r="C719" t="n">
-        <v>5.721515398037539e-25</v>
+        <v>5.694714381121039e-25</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.41352828976961</v>
       </c>
       <c r="C720" t="n">
-        <v>6.173706462832817e-25</v>
+        <v>6.144350806192494e-25</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.414445497252475</v>
       </c>
       <c r="C721" t="n">
-        <v>6.601135177646866e-25</v>
+        <v>6.571855477288619e-25</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.41536270473534</v>
       </c>
       <c r="C722" t="n">
-        <v>6.991992312965608e-25</v>
+        <v>6.965202128129098e-25</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.416279912218204</v>
       </c>
       <c r="C723" t="n">
-        <v>7.337531317575123e-25</v>
+        <v>7.314986096114296e-25</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.41719711970107</v>
       </c>
       <c r="C724" t="n">
-        <v>7.629053045525764e-25</v>
+        <v>7.611843296793415e-25</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.418114327183934</v>
       </c>
       <c r="C725" t="n">
-        <v>7.857858350865841e-25</v>
+        <v>7.846409645713579e-25</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.4190315346668</v>
       </c>
       <c r="C726" t="n">
-        <v>8.015301957375625e-25</v>
+        <v>8.00937694379809e-25</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.419948742149664</v>
       </c>
       <c r="C727" t="n">
-        <v>8.098792601321597e-25</v>
+        <v>8.097717527496859e-25</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.420865949632529</v>
       </c>
       <c r="C728" t="n">
-        <v>8.117255047083123e-25</v>
+        <v>8.120350656701541e-25</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.421783157115394</v>
       </c>
       <c r="C729" t="n">
-        <v>8.08090404883356e-25</v>
+        <v>8.087533848657678e-25</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.422700364598259</v>
       </c>
       <c r="C730" t="n">
-        <v>7.999954360746391e-25</v>
+        <v>8.009524620610924e-25</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.423617572081124</v>
       </c>
       <c r="C731" t="n">
-        <v>7.884587954835825e-25</v>
+        <v>7.896547882404194e-25</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.424534779563989</v>
       </c>
       <c r="C732" t="n">
-        <v>7.742560800181658e-25</v>
+        <v>7.756415473585233e-25</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.425451987046854</v>
       </c>
       <c r="C733" t="n">
-        <v>7.577577744647688e-25</v>
+        <v>7.592909708374431e-25</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.426369194529719</v>
       </c>
       <c r="C734" t="n">
-        <v>7.392958796699835e-25</v>
+        <v>7.409430113112481e-25</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.427286402012584</v>
       </c>
       <c r="C735" t="n">
-        <v>7.192023964804033e-25</v>
+        <v>7.209376214140073e-25</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.428203609495449</v>
       </c>
       <c r="C736" t="n">
-        <v>6.978093257426205e-25</v>
+        <v>6.996147537797904e-25</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.429120816978314</v>
       </c>
       <c r="C737" t="n">
-        <v>6.754486683032279e-25</v>
+        <v>6.773143610426662e-25</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.430038024461179</v>
       </c>
       <c r="C738" t="n">
-        <v>6.524379523827902e-25</v>
+        <v>6.543612701248452e-25</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.430955231944044</v>
       </c>
       <c r="C739" t="n">
-        <v>6.289749116179361e-25</v>
+        <v>6.309551075629669e-25</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.431872439426908</v>
       </c>
       <c r="C740" t="n">
-        <v>6.051981195884322e-25</v>
+        <v>6.072336702041636e-25</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.432789646909773</v>
       </c>
       <c r="C741" t="n">
-        <v>5.812457314002195e-25</v>
+        <v>5.83334317537862e-25</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.433706854392638</v>
       </c>
       <c r="C742" t="n">
-        <v>5.57255902159238e-25</v>
+        <v>5.593944090534887e-25</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.434624061875503</v>
       </c>
       <c r="C743" t="n">
-        <v>5.333667869714288e-25</v>
+        <v>5.355513042404701e-25</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.435541269358368</v>
       </c>
       <c r="C744" t="n">
-        <v>5.097165409427321e-25</v>
+        <v>5.119423625882327e-25</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.436458476841233</v>
       </c>
       <c r="C745" t="n">
-        <v>4.864433191790884e-25</v>
+        <v>4.88704943586203e-25</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.437375684324098</v>
       </c>
       <c r="C746" t="n">
-        <v>4.636852767864384e-25</v>
+        <v>4.659764067238076e-25</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.438292891806963</v>
       </c>
       <c r="C747" t="n">
-        <v>4.415805688707226e-25</v>
+        <v>4.438941114904729e-25</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.439210099289828</v>
       </c>
       <c r="C748" t="n">
-        <v>4.202673505378815e-25</v>
+        <v>4.225954173756256e-25</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.440127306772693</v>
       </c>
       <c r="C749" t="n">
-        <v>3.998837768938557e-25</v>
+        <v>4.02217683868692e-25</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.441044514255558</v>
       </c>
       <c r="C750" t="n">
-        <v>3.805612112082808e-25</v>
+        <v>3.828915317827963e-25</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.441961721738423</v>
       </c>
       <c r="C751" t="n">
-        <v>3.623365478395627e-25</v>
+        <v>3.64653852432171e-25</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.442878929221288</v>
       </c>
       <c r="C752" t="n">
-        <v>3.451774538120627e-25</v>
+        <v>3.474728516424026e-25</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.443796136704153</v>
       </c>
       <c r="C753" t="n">
-        <v>3.290500060671253e-25</v>
+        <v>3.313151576017114e-25</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.444713344187018</v>
       </c>
       <c r="C754" t="n">
-        <v>3.139202815460955e-25</v>
+        <v>3.161473984983177e-25</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.445630551669883</v>
       </c>
       <c r="C755" t="n">
-        <v>2.997543571903179e-25</v>
+        <v>3.019362025204416e-25</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.446547759152748</v>
       </c>
       <c r="C756" t="n">
-        <v>2.865183099411373e-25</v>
+        <v>2.886481978563036e-25</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.447464966635613</v>
       </c>
       <c r="C757" t="n">
-        <v>2.741782167398986e-25</v>
+        <v>2.762500126941239e-25</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.448382174118477</v>
       </c>
       <c r="C758" t="n">
-        <v>2.627001545279466e-25</v>
+        <v>2.647082752221226e-25</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.449299381601342</v>
       </c>
       <c r="C759" t="n">
-        <v>2.520502002466258e-25</v>
+        <v>2.539896136285201e-25</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.450216589084206</v>
       </c>
       <c r="C760" t="n">
-        <v>2.421944308372903e-25</v>
+        <v>2.440606561015458e-25</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.451133796567072</v>
       </c>
       <c r="C761" t="n">
-        <v>2.330989232412574e-25</v>
+        <v>2.348880308293924e-25</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.452051004049936</v>
       </c>
       <c r="C762" t="n">
-        <v>2.247297543999071e-25</v>
+        <v>2.264383660003155e-25</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.452968211532802</v>
       </c>
       <c r="C763" t="n">
-        <v>2.170530012545517e-25</v>
+        <v>2.186782898025029e-25</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.453885419015666</v>
       </c>
       <c r="C764" t="n">
-        <v>2.100347407465657e-25</v>
+        <v>2.115744304242047e-25</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.454802626498531</v>
       </c>
       <c r="C765" t="n">
-        <v>2.036410498172727e-25</v>
+        <v>2.050934160536196e-25</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.455719833981396</v>
       </c>
       <c r="C766" t="n">
-        <v>1.978380054080244e-25</v>
+        <v>1.992018748789753e-25</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.456637041464261</v>
       </c>
       <c r="C767" t="n">
-        <v>1.925916844601657e-25</v>
+        <v>1.938664350884917e-25</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.457554248947126</v>
       </c>
       <c r="C768" t="n">
-        <v>1.878681639150413e-25</v>
+        <v>1.890537248703894e-25</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.458471456429991</v>
       </c>
       <c r="C769" t="n">
-        <v>1.83633520713996e-25</v>
+        <v>1.847303724128885e-25</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.459388663912856</v>
       </c>
       <c r="C770" t="n">
-        <v>1.798538317983745e-25</v>
+        <v>1.808630059042092e-25</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.460305871395721</v>
       </c>
       <c r="C771" t="n">
-        <v>1.764951741095217e-25</v>
+        <v>1.774182535325719e-25</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.461223078878586</v>
       </c>
       <c r="C772" t="n">
-        <v>1.735236245887823e-25</v>
+        <v>1.743627434861968e-25</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.462140286361451</v>
       </c>
       <c r="C773" t="n">
-        <v>1.709052601775011e-25</v>
+        <v>1.716631039533042e-25</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.463057493844316</v>
       </c>
       <c r="C774" t="n">
-        <v>1.686061578170228e-25</v>
+        <v>1.692859631221142e-25</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.463974701327181</v>
       </c>
       <c r="C775" t="n">
-        <v>1.665923944486922e-25</v>
+        <v>1.671979491808472e-25</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.464891908810046</v>
       </c>
       <c r="C776" t="n">
-        <v>1.648300470138542e-25</v>
+        <v>1.653656903177235e-25</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.465809116292911</v>
       </c>
       <c r="C777" t="n">
-        <v>1.632851924538534e-25</v>
+        <v>1.637558147209634e-25</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.466726323775775</v>
       </c>
       <c r="C778" t="n">
-        <v>1.619239077100346e-25</v>
+        <v>1.623349505787869e-25</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.46764353125864</v>
       </c>
       <c r="C779" t="n">
-        <v>1.607122697237425e-25</v>
+        <v>1.610697260794145e-25</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.468560738741505</v>
       </c>
       <c r="C780" t="n">
-        <v>1.596163554363221e-25</v>
+        <v>1.599267694110664e-25</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.46947794622437</v>
       </c>
       <c r="C781" t="n">
-        <v>1.58602241789118e-25</v>
+        <v>1.588727087619628e-25</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.470395153707235</v>
       </c>
       <c r="C782" t="n">
-        <v>1.576360057234751e-25</v>
+        <v>1.578741723203241e-25</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.4713123611901</v>
       </c>
       <c r="C783" t="n">
-        <v>1.566837241807379e-25</v>
+        <v>1.568977882743704e-25</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.472229568672965</v>
       </c>
       <c r="C784" t="n">
-        <v>1.557114741022515e-25</v>
+        <v>1.559101848123222e-25</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.47314677615583</v>
       </c>
       <c r="C785" t="n">
-        <v>1.546853324293605e-25</v>
+        <v>1.548779901223994e-25</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.474063983638695</v>
       </c>
       <c r="C786" t="n">
-        <v>1.535713761034096e-25</v>
+        <v>1.537678323928226e-25</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.47498119112156</v>
       </c>
       <c r="C787" t="n">
-        <v>1.523358448770319e-25</v>
+        <v>1.525464980064109e-25</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.475898398604425</v>
       </c>
       <c r="C788" t="n">
-        <v>1.509657024518248e-25</v>
+        <v>1.512009096451023e-25</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.47681560608729</v>
       </c>
       <c r="C789" t="n">
-        <v>1.494887242633898e-25</v>
+        <v>1.49757644464258e-25</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.477732813570155</v>
       </c>
       <c r="C790" t="n">
-        <v>1.479374542592705e-25</v>
+        <v>1.482479129149002e-25</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.47865002105302</v>
       </c>
       <c r="C791" t="n">
-        <v>1.4634443638701e-25</v>
+        <v>1.467029254480509e-25</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.479567228535885</v>
       </c>
       <c r="C792" t="n">
-        <v>1.447422145941518e-25</v>
+        <v>1.451538925147321e-25</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.48048443601875</v>
       </c>
       <c r="C793" t="n">
-        <v>1.431633328282391e-25</v>
+        <v>1.436320245659658e-25</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.481401643501615</v>
       </c>
       <c r="C794" t="n">
-        <v>1.416403350368154e-25</v>
+        <v>1.421685320527742e-25</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.48231885098448</v>
       </c>
       <c r="C795" t="n">
-        <v>1.402057651674239e-25</v>
+        <v>1.407946254261792e-25</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.483236058467345</v>
       </c>
       <c r="C796" t="n">
-        <v>1.388921671676081e-25</v>
+        <v>1.395415151372028e-25</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.484153265950209</v>
       </c>
       <c r="C797" t="n">
-        <v>1.377320849849122e-25</v>
+        <v>1.384404116368682e-25</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.485070473433074</v>
       </c>
       <c r="C798" t="n">
-        <v>1.367580625668766e-25</v>
+        <v>1.375225253761943e-25</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.485987680915938</v>
       </c>
       <c r="C799" t="n">
-        <v>1.360026438610483e-25</v>
+        <v>1.368190668062068e-25</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.486904888398804</v>
       </c>
       <c r="C800" t="n">
-        <v>1.354983728149677e-25</v>
+        <v>1.36361246377925e-25</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.487822095881668</v>
       </c>
       <c r="C801" t="n">
-        <v>1.352777933761802e-25</v>
+        <v>1.361802745423727e-25</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.488739303364533</v>
       </c>
       <c r="C802" t="n">
-        <v>1.353734494922279e-25</v>
+        <v>1.363073617505709e-25</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.489656510847398</v>
       </c>
       <c r="C803" t="n">
-        <v>1.358178851106546e-25</v>
+        <v>1.367737184535421e-25</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.490573718330263</v>
       </c>
       <c r="C804" t="n">
-        <v>1.366436441790036e-25</v>
+        <v>1.376105551023082e-25</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.491490925813128</v>
       </c>
       <c r="C805" t="n">
-        <v>1.378832706448183e-25</v>
+        <v>1.388490821478913e-25</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.492408133295993</v>
       </c>
       <c r="C806" t="n">
-        <v>1.395693084556421e-25</v>
+        <v>1.405205100413134e-25</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.493325340778858</v>
       </c>
       <c r="C807" t="n">
-        <v>1.417343015590182e-25</v>
+        <v>1.426560492335967e-25</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.494242548261723</v>
       </c>
       <c r="C808" t="n">
-        <v>1.444107939024899e-25</v>
+        <v>1.45286910175763e-25</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.495159755744588</v>
       </c>
       <c r="C809" t="n">
-        <v>1.476313294336008e-25</v>
+        <v>1.484443033188345e-25</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.496076963227453</v>
       </c>
       <c r="C810" t="n">
-        <v>1.51428452099894e-25</v>
+        <v>1.521594391138332e-25</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.496994170710318</v>
       </c>
       <c r="C811" t="n">
-        <v>1.55834705848913e-25</v>
+        <v>1.564635280117812e-25</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.497911378193183</v>
       </c>
       <c r="C812" t="n">
-        <v>1.608826346282011e-25</v>
+        <v>1.613877804637004e-25</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.498828585676048</v>
       </c>
       <c r="C813" t="n">
-        <v>1.666047823853015e-25</v>
+        <v>1.669634069206129e-25</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.499745793158913</v>
       </c>
       <c r="C814" t="n">
-        <v>1.730336930677578e-25</v>
+        <v>1.732216178335408e-25</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.500663000641778</v>
       </c>
       <c r="C815" t="n">
-        <v>1.801946951133042e-25</v>
+        <v>1.801872091945985e-25</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.501580208124643</v>
       </c>
       <c r="C816" t="n">
-        <v>1.880336864897699e-25</v>
+        <v>1.878143647316645e-25</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.502497415607507</v>
       </c>
       <c r="C817" t="n">
-        <v>1.964473564570518e-25</v>
+        <v>1.960135225131579e-25</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.503414623090372</v>
       </c>
       <c r="C818" t="n">
-        <v>2.053316609654568e-25</v>
+        <v>2.046944687084141e-25</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.504331830573237</v>
       </c>
       <c r="C819" t="n">
-        <v>2.145825559652924e-25</v>
+        <v>2.137669894867689e-25</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.505249038056102</v>
       </c>
       <c r="C820" t="n">
-        <v>2.240959974068657e-25</v>
+        <v>2.23140871017558e-25</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.506166245538967</v>
       </c>
       <c r="C821" t="n">
-        <v>2.337679412404839e-25</v>
+        <v>2.327258994701171e-25</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.507083453021832</v>
       </c>
       <c r="C822" t="n">
-        <v>2.434943434164544e-25</v>
+        <v>2.424318610137819e-25</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.508000660504697</v>
       </c>
       <c r="C823" t="n">
-        <v>2.531711598850843e-25</v>
+        <v>2.521685418178882e-25</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.508917867987562</v>
       </c>
       <c r="C824" t="n">
-        <v>2.626943465966809e-25</v>
+        <v>2.618457280517714e-25</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.509835075470427</v>
       </c>
       <c r="C825" t="n">
-        <v>2.71961046555658e-25</v>
+        <v>2.713715737367105e-25</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.510752282953292</v>
       </c>
       <c r="C826" t="n">
-        <v>2.808778299832996e-25</v>
+        <v>2.806412708785107e-25</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.511669490436157</v>
       </c>
       <c r="C827" t="n">
-        <v>2.893557626789785e-25</v>
+        <v>2.895438302575372e-25</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.512586697919022</v>
       </c>
       <c r="C828" t="n">
-        <v>2.973059381284604e-25</v>
+        <v>2.979682245865616e-25</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.513503905401887</v>
       </c>
       <c r="C829" t="n">
-        <v>3.046394498175116e-25</v>
+        <v>3.05803426578356e-25</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.514421112884752</v>
       </c>
       <c r="C830" t="n">
-        <v>3.112673912318981e-25</v>
+        <v>3.129384089456921e-25</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.515338320367617</v>
       </c>
       <c r="C831" t="n">
-        <v>3.171008558573856e-25</v>
+        <v>3.192621444013418e-25</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.516255527850482</v>
       </c>
       <c r="C832" t="n">
-        <v>3.220509371797402e-25</v>
+        <v>3.246636056580769e-25</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.517172735333347</v>
       </c>
       <c r="C833" t="n">
-        <v>3.260287286847279e-25</v>
+        <v>3.290317654286692e-25</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.518089942816211</v>
       </c>
       <c r="C834" t="n">
-        <v>3.289453238581123e-25</v>
+        <v>3.32255596425888e-25</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.519007150299077</v>
       </c>
       <c r="C835" t="n">
-        <v>3.307118161856663e-25</v>
+        <v>3.342240713625129e-25</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.519924357781941</v>
       </c>
       <c r="C836" t="n">
-        <v>3.312392991531492e-25</v>
+        <v>3.348261629513082e-25</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.520841565264806</v>
       </c>
       <c r="C837" t="n">
-        <v>3.304388662463287e-25</v>
+        <v>3.339508439050477e-25</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.52175877274767</v>
       </c>
       <c r="C838" t="n">
-        <v>3.282216109509742e-25</v>
+        <v>3.314870869365071e-25</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.522675980230535</v>
       </c>
       <c r="C839" t="n">
-        <v>3.24525623760546e-25</v>
+        <v>3.273589780224956e-25</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.5235931877134</v>
       </c>
       <c r="C840" t="n">
-        <v>3.194561628625142e-25</v>
+        <v>3.217080273612249e-25</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.524510395196265</v>
       </c>
       <c r="C841" t="n">
-        <v>3.131823916882773e-25</v>
+        <v>3.147588625737262e-25</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.52542760267913</v>
       </c>
       <c r="C842" t="n">
-        <v>3.058736020030484e-25</v>
+        <v>3.067362781965336e-25</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.526344810161995</v>
       </c>
       <c r="C843" t="n">
-        <v>2.976990855720406e-25</v>
+        <v>2.978650687661809e-25</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.52726201764486</v>
       </c>
       <c r="C844" t="n">
-        <v>2.88828134160467e-25</v>
+        <v>2.883700288192021e-25</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.528179225127725</v>
       </c>
       <c r="C845" t="n">
-        <v>2.794300395335406e-25</v>
+        <v>2.784759528921315e-25</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.52909643261059</v>
       </c>
       <c r="C846" t="n">
-        <v>2.696740934564746e-25</v>
+        <v>2.684076355215028e-25</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.530013640093455</v>
       </c>
       <c r="C847" t="n">
-        <v>2.597295876944818e-25</v>
+        <v>2.5838987124385e-25</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.53093084757632</v>
       </c>
       <c r="C848" t="n">
-        <v>2.497639728195021e-25</v>
+        <v>2.486424233534562e-25</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.531848055059185</v>
       </c>
       <c r="C849" t="n">
-        <v>2.399047608445804e-25</v>
+        <v>2.392759190925296e-25</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.53276526254205</v>
       </c>
       <c r="C850" t="n">
-        <v>2.302408193526978e-25</v>
+        <v>2.302953859858991e-25</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.533682470024915</v>
       </c>
       <c r="C851" t="n">
-        <v>2.208594336473668e-25</v>
+        <v>2.217015278236556e-25</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.53459967750778</v>
       </c>
       <c r="C852" t="n">
-        <v>2.118478890320996e-25</v>
+        <v>2.134950483958895e-25</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.535516884990645</v>
       </c>
       <c r="C853" t="n">
-        <v>2.032934708104089e-25</v>
+        <v>2.056766514926913e-25</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.53643409247351</v>
       </c>
       <c r="C854" t="n">
-        <v>1.95283464285807e-25</v>
+        <v>1.982470409041517e-25</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.537351299956375</v>
       </c>
       <c r="C855" t="n">
-        <v>1.879051547618061e-25</v>
+        <v>1.912069204203612e-25</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.538268507439239</v>
       </c>
       <c r="C856" t="n">
-        <v>1.81245827541919e-25</v>
+        <v>1.845569938314105e-25</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.539185714922104</v>
       </c>
       <c r="C857" t="n">
-        <v>1.75392584662331e-25</v>
+        <v>1.782979581175967e-25</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.540102922404969</v>
       </c>
       <c r="C858" t="n">
-        <v>1.703727823666169e-25</v>
+        <v>1.724282902426351e-25</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.541020129887834</v>
       </c>
       <c r="C859" t="n">
-        <v>1.660683679673486e-25</v>
+        <v>1.669410641079686e-25</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.541937337370699</v>
       </c>
       <c r="C860" t="n">
-        <v>1.623395893468522e-25</v>
+        <v>1.618285473139962e-25</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.542854544853564</v>
       </c>
       <c r="C861" t="n">
-        <v>1.590466943874542e-25</v>
+        <v>1.570830074611167e-25</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.543771752336429</v>
       </c>
       <c r="C862" t="n">
-        <v>1.560499309714806e-25</v>
+        <v>1.526967121497291e-25</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.544688959819294</v>
       </c>
       <c r="C863" t="n">
-        <v>1.532095469812577e-25</v>
+        <v>1.486619289802321e-25</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.545606167302159</v>
       </c>
       <c r="C864" t="n">
-        <v>1.503857902991117e-25</v>
+        <v>1.449709255530248e-25</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.546523374785024</v>
       </c>
       <c r="C865" t="n">
-        <v>1.474591711747922e-25</v>
+        <v>1.416169449886877e-25</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.547440582267889</v>
       </c>
       <c r="C866" t="n">
-        <v>1.444659201174748e-25</v>
+        <v>1.386007274713287e-25</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.548357789750754</v>
       </c>
       <c r="C867" t="n">
-        <v>1.415144678836603e-25</v>
+        <v>1.359264892249935e-25</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.549274997233619</v>
       </c>
       <c r="C868" t="n">
-        <v>1.387136406549757e-25</v>
+        <v>1.335984655112461e-25</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.550192204716484</v>
       </c>
       <c r="C869" t="n">
-        <v>1.361722646130482e-25</v>
+        <v>1.316208915916502e-25</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.551109412199349</v>
       </c>
       <c r="C870" t="n">
-        <v>1.339991659395049e-25</v>
+        <v>1.299980027277701e-25</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.552026619682213</v>
       </c>
       <c r="C871" t="n">
-        <v>1.323012676093324e-25</v>
+        <v>1.287340209701474e-25</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.552943827165079</v>
       </c>
       <c r="C872" t="n">
-        <v>1.311245651856178e-25</v>
+        <v>1.278327454444416e-25</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.553861034647943</v>
       </c>
       <c r="C873" t="n">
-        <v>1.304427289081113e-25</v>
+        <v>1.272974732333519e-25</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.554778242130809</v>
       </c>
       <c r="C874" t="n">
-        <v>1.302252251912624e-25</v>
+        <v>1.271314722389088e-25</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.555695449613673</v>
       </c>
       <c r="C875" t="n">
-        <v>1.304415204495239e-25</v>
+        <v>1.273380103631454e-25</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.556612657096538</v>
       </c>
       <c r="C876" t="n">
-        <v>1.310610810973477e-25</v>
+        <v>1.279203555080941e-25</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.557529864579402</v>
       </c>
       <c r="C877" t="n">
-        <v>1.32053373549186e-25</v>
+        <v>1.288817755757875e-25</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.558447072062267</v>
       </c>
       <c r="C878" t="n">
-        <v>1.333878642194905e-25</v>
+        <v>1.30225538468258e-25</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.559364279545132</v>
       </c>
       <c r="C879" t="n">
-        <v>1.350340966395031e-25</v>
+        <v>1.319539724594486e-25</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.560281487027997</v>
       </c>
       <c r="C880" t="n">
-        <v>1.369634527522183e-25</v>
+        <v>1.340470057294688e-25</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.561198694510862</v>
       </c>
       <c r="C881" t="n">
-        <v>1.391491896066375e-25</v>
+        <v>1.364617192641454e-25</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.562115901993727</v>
       </c>
       <c r="C882" t="n">
-        <v>1.415646487083009e-25</v>
+        <v>1.391541649901766e-25</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.563033109476592</v>
       </c>
       <c r="C883" t="n">
-        <v>1.441831715627485e-25</v>
+        <v>1.42080394834261e-25</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.563950316959457</v>
       </c>
       <c r="C884" t="n">
-        <v>1.469780996755208e-25</v>
+        <v>1.451964607230969e-25</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.564867524442322</v>
       </c>
       <c r="C885" t="n">
-        <v>1.499227745521577e-25</v>
+        <v>1.484584145833829e-25</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.565784731925187</v>
       </c>
       <c r="C886" t="n">
-        <v>1.529905376981997e-25</v>
+        <v>1.518223083418173e-25</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.566701939408052</v>
       </c>
       <c r="C887" t="n">
-        <v>1.561547306191866e-25</v>
+        <v>1.552441939250986e-25</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.567619146890917</v>
       </c>
       <c r="C888" t="n">
-        <v>1.593885027690483e-25</v>
+        <v>1.586820920416518e-25</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.568536354373782</v>
       </c>
       <c r="C889" t="n">
-        <v>1.626635979498699e-25</v>
+        <v>1.621084331809776e-25</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.569453561856647</v>
       </c>
       <c r="C890" t="n">
-        <v>1.659511352790338e-25</v>
+        <v>1.655020516727931e-25</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.570370769339512</v>
       </c>
       <c r="C891" t="n">
-        <v>1.692222310397883e-25</v>
+        <v>1.688418109004199e-25</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.571287976822377</v>
       </c>
       <c r="C892" t="n">
-        <v>1.724480015153816e-25</v>
+        <v>1.721065742471793e-25</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.572205184305242</v>
       </c>
       <c r="C893" t="n">
-        <v>1.755995629890621e-25</v>
+        <v>1.752752050963928e-25</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.573122391788107</v>
       </c>
       <c r="C894" t="n">
-        <v>1.786480317440778e-25</v>
+        <v>1.783265668313819e-25</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.574039599270971</v>
       </c>
       <c r="C895" t="n">
-        <v>1.815645240636771e-25</v>
+        <v>1.81239522835468e-25</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.574956806753836</v>
       </c>
       <c r="C896" t="n">
-        <v>1.843201562311082e-25</v>
+        <v>1.839929364919726e-25</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.575874014236701</v>
       </c>
       <c r="C897" t="n">
-        <v>1.868857898531229e-25</v>
+        <v>1.865653849626185e-25</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.576791221719566</v>
       </c>
       <c r="C898" t="n">
-        <v>1.892074225644357e-25</v>
+        <v>1.889075017004718e-25</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.577708429202431</v>
       </c>
       <c r="C899" t="n">
-        <v>1.911856724210554e-25</v>
+        <v>1.909189197100589e-25</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.578625636685296</v>
       </c>
       <c r="C900" t="n">
-        <v>1.92716328058018e-25</v>
+        <v>1.924938443863343e-25</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.579542844168161</v>
       </c>
       <c r="C901" t="n">
-        <v>1.936951781103601e-25</v>
+        <v>1.935264811242524e-25</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.580460051651026</v>
       </c>
       <c r="C902" t="n">
-        <v>1.940180112131176e-25</v>
+        <v>1.939110353187674e-25</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.581377259133891</v>
       </c>
       <c r="C903" t="n">
-        <v>1.93580616001327e-25</v>
+        <v>1.935417123648339e-25</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.582294466616756</v>
       </c>
       <c r="C904" t="n">
-        <v>1.922787811100245e-25</v>
+        <v>1.923127176574062e-25</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.583211674099621</v>
       </c>
       <c r="C905" t="n">
-        <v>1.900082951742463e-25</v>
+        <v>1.901182565914387e-25</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.584128881582486</v>
       </c>
       <c r="C906" t="n">
-        <v>1.866650090362312e-25</v>
+        <v>1.868525965912571e-25</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.585046089065351</v>
       </c>
       <c r="C907" t="n">
-        <v>1.821997113533894e-25</v>
+        <v>1.824647858461278e-25</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.585963296548215</v>
       </c>
       <c r="C908" t="n">
-        <v>1.767189138988875e-25</v>
+        <v>1.770591504968236e-25</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.586880504031081</v>
       </c>
       <c r="C909" t="n">
-        <v>1.70356529754825e-25</v>
+        <v>1.707673396611788e-25</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.587797711513945</v>
       </c>
       <c r="C910" t="n">
-        <v>1.632464720033431e-25</v>
+        <v>1.637210024570688e-25</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.588714918996811</v>
       </c>
       <c r="C911" t="n">
-        <v>1.555226924433627e-25</v>
+        <v>1.560518267134449e-25</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.589632126479675</v>
       </c>
       <c r="C912" t="n">
-        <v>1.474534263910519e-25</v>
+        <v>1.480257639909338e-25</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.59054933396254</v>
       </c>
       <c r="C913" t="n">
-        <v>1.397418379071523e-25</v>
+        <v>1.403436305115654e-25</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.591466541445405</v>
       </c>
       <c r="C914" t="n">
-        <v>1.331789870645488e-25</v>
+        <v>1.337941255587592e-25</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.59238374892827</v>
       </c>
       <c r="C915" t="n">
-        <v>1.285559339361192e-25</v>
+        <v>1.291659484159267e-25</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.593300956411134</v>
       </c>
       <c r="C916" t="n">
-        <v>1.266637324818077e-25</v>
+        <v>1.272477923245421e-25</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.594218163893999</v>
       </c>
       <c r="C917" t="n">
-        <v>1.278843627610343e-25</v>
+        <v>1.284240275710444e-25</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.595135371376864</v>
       </c>
       <c r="C918" t="n">
-        <v>1.310828075182114e-25</v>
+        <v>1.315796453898318e-25</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.596052578859729</v>
       </c>
       <c r="C919" t="n">
-        <v>1.347724797126131e-25</v>
+        <v>1.352521503283109e-25</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.596969786342594</v>
       </c>
       <c r="C920" t="n">
-        <v>1.374956230887635e-25</v>
+        <v>1.380068794972624e-25</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.597886993825459</v>
       </c>
       <c r="C921" t="n">
-        <v>1.385433725830928e-25</v>
+        <v>1.391321319864159e-25</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.598804201308324</v>
       </c>
       <c r="C922" t="n">
-        <v>1.380067593467241e-25</v>
+        <v>1.386884079162761e-25</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.599721408791189</v>
       </c>
       <c r="C923" t="n">
-        <v>1.360158602051735e-25</v>
+        <v>1.3677390118494e-25</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.600638616274054</v>
       </c>
       <c r="C924" t="n">
-        <v>1.327007519839572e-25</v>
+        <v>1.334868056905044e-25</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.601555823756919</v>
       </c>
       <c r="C925" t="n">
-        <v>1.281915262341854e-25</v>
+        <v>1.289253329974125e-25</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.602473031239784</v>
       </c>
       <c r="C926" t="n">
-        <v>1.227192184565615e-25</v>
+        <v>1.23308797475599e-25</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.603390238722649</v>
       </c>
       <c r="C927" t="n">
-        <v>1.168568366304757e-25</v>
+        <v>1.172667790605594e-25</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.604307446205514</v>
       </c>
       <c r="C928" t="n">
-        <v>1.11249735580592e-25</v>
+        <v>1.115156524483113e-25</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.605224653688379</v>
       </c>
       <c r="C929" t="n">
-        <v>1.065366208192275e-25</v>
+        <v>1.067643611338344e-25</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.606141861171244</v>
       </c>
       <c r="C930" t="n">
-        <v>1.029099960444565e-25</v>
+        <v>1.032231781914353e-25</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.607059068654109</v>
       </c>
       <c r="C931" t="n">
-        <v>9.984212617412196e-26</v>
+        <v>1.002974454646218e-25</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.607976276136974</v>
       </c>
       <c r="C932" t="n">
-        <v>9.673984921886455e-26</v>
+        <v>9.731938437852503e-26</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.608893483619839</v>
       </c>
       <c r="C933" t="n">
-        <v>9.302348504118537e-26</v>
+        <v>9.363719365948464e-26</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.609810691102703</v>
       </c>
       <c r="C934" t="n">
-        <v>8.844262433824264e-26</v>
+        <v>8.89892898881087e-26</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.610727898585568</v>
       </c>
       <c r="C935" t="n">
-        <v>8.308715529898713e-26</v>
+        <v>8.351737515675846e-26</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.611645106068433</v>
       </c>
       <c r="C936" t="n">
-        <v>7.706265438679585e-26</v>
+        <v>7.73817433142867e-26</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.612562313551298</v>
       </c>
       <c r="C937" t="n">
-        <v>7.04880996385243e-26</v>
+        <v>7.074405612373822e-26</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.613479521034163</v>
       </c>
       <c r="C938" t="n">
-        <v>6.353142166297636e-26</v>
+        <v>6.377097199411199e-26</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.614396728517028</v>
       </c>
       <c r="C939" t="n">
-        <v>5.637172518497991e-26</v>
+        <v>5.663028988942595e-26</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.615313935999893</v>
       </c>
       <c r="C940" t="n">
-        <v>4.918811492936283e-26</v>
+        <v>4.948980877369798e-26</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.616231143482758</v>
       </c>
       <c r="C941" t="n">
-        <v>4.215969562095299e-26</v>
+        <v>4.251732761094595e-26</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.617148350965623</v>
       </c>
       <c r="C942" t="n">
-        <v>3.546557198457826e-26</v>
+        <v>3.588064536518777e-26</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.618065558448488</v>
       </c>
       <c r="C943" t="n">
-        <v>2.928484874506654e-26</v>
+        <v>2.974756100044133e-26</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.618982765931353</v>
       </c>
       <c r="C944" t="n">
-        <v>2.379663062724572e-26</v>
+        <v>2.428587348072453e-26</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.619899973414217</v>
       </c>
       <c r="C945" t="n">
-        <v>1.918002235594767e-26</v>
+        <v>1.966338177005929e-26</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.620817180897083</v>
       </c>
       <c r="C946" t="n">
-        <v>1.56114790101857e-26</v>
+        <v>1.604550220479903e-26</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.621734388379947</v>
       </c>
       <c r="C947" t="n">
-        <v>1.308265054544391e-26</v>
+        <v>1.343146974067959e-26</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.622651595862813</v>
       </c>
       <c r="C948" t="n">
-        <v>1.128281057625385e-26</v>
+        <v>1.154861497901544e-26</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.623568803345677</v>
       </c>
       <c r="C949" t="n">
-        <v>9.875302327276697e-27</v>
+        <v>1.010066939284856e-26</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.624486010828542</v>
       </c>
       <c r="C950" t="n">
-        <v>8.654978609092556e-27</v>
+        <v>8.891410300029357e-27</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.625403218311407</v>
       </c>
       <c r="C951" t="n">
-        <v>7.626114491848065e-27</v>
+        <v>7.883932886642214e-27</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.626320425794272</v>
       </c>
       <c r="C952" t="n">
-        <v>6.80767606641843e-27</v>
+        <v>7.056302081934477e-27</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.627237633277137</v>
       </c>
       <c r="C953" t="n">
-        <v>6.189170682394782e-27</v>
+        <v>6.392163431649456e-27</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.628154840760001</v>
       </c>
       <c r="C954" t="n">
-        <v>5.746920876493103e-27</v>
+        <v>5.877660191243107e-27</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.629072048242866</v>
       </c>
       <c r="C955" t="n">
-        <v>5.457187392232432e-27</v>
+        <v>5.498947322175078e-27</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.629989255725731</v>
       </c>
       <c r="C956" t="n">
-        <v>5.296230973131808e-27</v>
+        <v>5.242179785905014e-27</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.630906463208596</v>
       </c>
       <c r="C957" t="n">
-        <v>5.240312362710268e-27</v>
+        <v>5.093512543892563e-27</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.631823670691461</v>
       </c>
       <c r="C958" t="n">
-        <v>5.265706745896417e-27</v>
+        <v>5.039106034944623e-27</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.632740878174326</v>
       </c>
       <c r="C959" t="n">
-        <v>5.353584945462117e-27</v>
+        <v>5.066977518587736e-27</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.633658085657191</v>
       </c>
       <c r="C960" t="n">
-        <v>5.497118595529535e-27</v>
+        <v>5.169695929917817e-27</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.634575293140056</v>
       </c>
       <c r="C961" t="n">
-        <v>5.691284506416738e-27</v>
+        <v>5.340514872437731e-27</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.635492500622921</v>
       </c>
       <c r="C962" t="n">
-        <v>5.931059488441798e-27</v>
+        <v>5.572687949650345e-27</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.636409708105786</v>
       </c>
       <c r="C963" t="n">
-        <v>6.211420351922778e-27</v>
+        <v>5.859468765058524e-27</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.637326915588651</v>
       </c>
       <c r="C964" t="n">
-        <v>6.527343907177751e-27</v>
+        <v>6.194110922165138e-27</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.638244123071516</v>
       </c>
       <c r="C965" t="n">
-        <v>6.873806964524783e-27</v>
+        <v>6.569868024473047e-27</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.639161330554381</v>
       </c>
       <c r="C966" t="n">
-        <v>7.24578633428194e-27</v>
+        <v>6.979993675485122e-27</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.640078538037246</v>
       </c>
       <c r="C967" t="n">
-        <v>7.638258826767293e-27</v>
+        <v>7.417741478704226e-27</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.640995745520111</v>
       </c>
       <c r="C968" t="n">
-        <v>8.046201252298907e-27</v>
+        <v>7.876365037633224e-27</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.641912953002976</v>
       </c>
       <c r="C969" t="n">
-        <v>8.464590421194854e-27</v>
+        <v>8.349117955774987e-27</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.642830160485841</v>
       </c>
       <c r="C970" t="n">
-        <v>8.888403143773199e-27</v>
+        <v>8.829253836632376e-27</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.643747367968706</v>
       </c>
       <c r="C971" t="n">
-        <v>9.312616230352011e-27</v>
+        <v>9.310026283708261e-27</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.644664575451571</v>
       </c>
       <c r="C972" t="n">
-        <v>9.73220649124936e-27</v>
+        <v>9.784688900505505e-27</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.645581782934435</v>
       </c>
       <c r="C973" t="n">
-        <v>1.014215073678331e-26</v>
+        <v>1.024649529052697e-26</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.6464989904173</v>
       </c>
       <c r="C974" t="n">
-        <v>1.053742577727193e-26</v>
+        <v>1.068869905727554e-26</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.647416197900165</v>
       </c>
       <c r="C975" t="n">
-        <v>1.091300842303329e-26</v>
+        <v>1.110455380425406e-26</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.64833340538303</v>
       </c>
       <c r="C976" t="n">
-        <v>1.126387548438546e-26</v>
+        <v>1.14873131349654e-26</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.649250612865895</v>
       </c>
       <c r="C977" t="n">
-        <v>1.158500377164651e-26</v>
+        <v>1.183023065291244e-26</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.65016782034876</v>
       </c>
       <c r="C978" t="n">
-        <v>1.187150005306788e-26</v>
+        <v>1.212678193585156e-26</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.651085027831625</v>
       </c>
       <c r="C979" t="n">
-        <v>1.212090720649486e-26</v>
+        <v>1.237460355113435e-26</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.65200223531449</v>
       </c>
       <c r="C980" t="n">
-        <v>1.233293166870073e-26</v>
+        <v>1.257502752637032e-26</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.652919442797355</v>
       </c>
       <c r="C981" t="n">
-        <v>1.250735508359613e-26</v>
+        <v>1.272951434649158e-26</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.653836650280219</v>
       </c>
       <c r="C982" t="n">
-        <v>1.26439590950916e-26</v>
+        <v>1.283952449643021e-26</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.654753857763085</v>
       </c>
       <c r="C983" t="n">
-        <v>1.274252534709812e-26</v>
+        <v>1.290651846111858e-26</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.655671065245949</v>
       </c>
       <c r="C984" t="n">
-        <v>1.280283548352595e-26</v>
+        <v>1.293195672548858e-26</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.656588272728815</v>
       </c>
       <c r="C985" t="n">
-        <v>1.282467114828599e-26</v>
+        <v>1.291729977447245e-26</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.657505480211679</v>
       </c>
       <c r="C986" t="n">
-        <v>1.280781398528879e-26</v>
+        <v>1.286400809300237e-26</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.658422687694544</v>
       </c>
       <c r="C987" t="n">
-        <v>1.275204563844501e-26</v>
+        <v>1.277354216601039e-26</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.659339895177409</v>
       </c>
       <c r="C988" t="n">
-        <v>1.265714775166529e-26</v>
+        <v>1.264736247842868e-26</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.660257102660274</v>
       </c>
       <c r="C989" t="n">
-        <v>1.252290196886027e-26</v>
+        <v>1.248692951518938e-26</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.661174310143139</v>
       </c>
       <c r="C990" t="n">
-        <v>1.234908993394062e-26</v>
+        <v>1.229370376122462e-26</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.662091517626004</v>
       </c>
       <c r="C991" t="n">
-        <v>1.213549329081697e-26</v>
+        <v>1.206914570146655e-26</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.663008725108869</v>
       </c>
       <c r="C992" t="n">
-        <v>1.188189368339996e-26</v>
+        <v>1.181471582084729e-26</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.663925932591733</v>
       </c>
       <c r="C993" t="n">
-        <v>1.158807275560026e-26</v>
+        <v>1.1531874604299e-26</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.664843140074598</v>
       </c>
       <c r="C994" t="n">
-        <v>1.125381215132849e-26</v>
+        <v>1.12220825367538e-26</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.665760347557463</v>
       </c>
       <c r="C995" t="n">
-        <v>1.087889351449532e-26</v>
+        <v>1.088680010314384e-26</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.666677555040328</v>
       </c>
       <c r="C996" t="n">
-        <v>1.046309848901139e-26</v>
+        <v>1.052748778840125e-26</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.667594762523193</v>
       </c>
       <c r="C997" t="n">
-        <v>1.000620871878734e-26</v>
+        <v>1.014560607745818e-26</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.668511970006058</v>
       </c>
       <c r="C998" t="n">
-        <v>9.511878768930124e-27</v>
+        <v>9.743805438884902e-27</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.669429177488923</v>
       </c>
       <c r="C999" t="n">
-        <v>9.032712343711339e-27</v>
+        <v>9.339776325737685e-27</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.670346384971788</v>
       </c>
       <c r="C1000" t="n">
-        <v>8.654863520358661e-27</v>
+        <v>8.961517790924958e-27</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1001" t="n">
-        <v>8.46514112602426e-27</v>
+        <v>8.637230064104632e-27</v>
       </c>
     </row>
   </sheetData>
